--- a/hw3.xlsx
+++ b/hw3.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\xlladdins\xllfloat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Shen\Source\Repos\xllfloat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EDB811-34F1-462D-A5B0-66E0DF56563B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7921A9-C90E-4D16-835F-0820E674C259}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="B" sheetId="2" r:id="rId2"/>
+    <sheet name="C" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="function" localSheetId="1">B!$C$2</definedName>
+    <definedName name="function" localSheetId="2">'C'!$C$2</definedName>
     <definedName name="function">Sheet1!$C$2</definedName>
     <definedName name="xvalues">_xll.ARRAY.GET(Sheet1!$N$5)</definedName>
+    <definedName name="xvalues2" localSheetId="1">_xll.ARRAY.GET(B!$N$5)</definedName>
+    <definedName name="xvalues3" localSheetId="2">_xll.ARRAY.GET('C'!$N$5)</definedName>
     <definedName name="yvalues">_xll.ARRAY.GET(Sheet1!$O$5)</definedName>
+    <definedName name="yvalues2" localSheetId="1">_xll.ARRAY.GET(B!$O$5)</definedName>
+    <definedName name="yvalues3" localSheetId="2">_xll.ARRAY.GET('C'!$O$5)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,9 +36,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,14 +43,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -60,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
   <si>
     <t>Bisect</t>
   </si>
@@ -96,19 +101,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -223,7 +235,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -942,7 +954,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1611889647"/>
@@ -1004,7 +1016,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1620144863"/>
@@ -1052,7 +1064,1767 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>kahan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>B!xvalues2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7503030303030302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7506060606060605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.750909090909091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7512121212121212</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7515151515151515</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7518181818181817</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7521212121212122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7524242424242424</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7527272727272727</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7530303030303029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7533333333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7536363636363637</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7539393939393939</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7542424242424242</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7548484848484849</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7551515151515151</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7554545454545454</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7557575757575759</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7560606060606061</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7563636363636363</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7566666666666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7569696969696971</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7572727272727273</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7575757575757576</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7578787878787878</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7581818181818183</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7584848484848485</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7587878787878788</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.759090909090909</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7593939393939395</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7596969696969698</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7603030303030303</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7606060606060605</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.760909090909091</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7612121212121212</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7615151515151515</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.7618181818181817</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7621212121212122</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7624242424242424</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7627272727272727</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7630303030303029</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7633333333333334</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7639393939393939</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7642424242424242</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7645454545454546</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7648484848484849</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7651515151515151</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7654545454545454</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.7657575757575759</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.7660606060606061</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.7663636363636364</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.7666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7669696969696971</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.7672727272727273</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7675757575757576</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7678787878787878</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.7681818181818183</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.7684848484848485</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.7687878787878788</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.769090909090909</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7693939393939395</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.7696969696969698</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7703030303030303</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7706060606060605</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.770909090909091</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7712121212121212</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7715151515151515</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7718181818181817</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7721212121212122</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7724242424242425</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.773030303030303</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.7733333333333334</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7736363636363637</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7739393939393939</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.7742424242424242</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7745454545454546</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.7748484848484849</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.7751515151515151</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.7754545454545454</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7757575757575759</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.7760606060606061</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.7763636363636364</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7766666666666666</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7769696969696971</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.7772727272727273</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.7775757575757576</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.7778787878787878</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.7781818181818183</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7784848484848486</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.7787878787878788</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.7790909090909091</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.7793939393939395</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.7796969696969698</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>B!yvalues2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.12873072591281076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12346092482272786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1182119524073153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11298374540724976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10777624066711522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10258937513558641</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7423085865685488E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2277310014973413E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7151984845801111E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.2047047725489541E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6962436126577272E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1898087627000118E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6853939910340499E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1829930765995744E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6825998089404584E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1842079882241654E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6878114252645542E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1934039415377988E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7009793692041937E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.210531551128426E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.722054340898139E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2355416028422503E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7509872120510028E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2683850543941499E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.8772902654056232E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0901303597472563E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.6776899898406361E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-6.4262314916408991E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.1155554745227225E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.5865720241298842E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.0556788361507539E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.5228819378281919E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.9881873454652208E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.451601064409815E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.9131290890375925E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-4.3727774027354283E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-4.8305519778854444E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5.2864587758488013E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-5.7405037469505205E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-6.1926928304642082E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-6.6430319545959904E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.0915270364691918E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-7.5381839821102359E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-7.9830086864339123E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-8.4260070332286774E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-8.8671848951406673E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-9.3065481336625178E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-9.7441025991172769E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.10179854130646215</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.10613808556192295</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.11045971692490708</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.1147634934505305</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.11904947308155533</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.12331771364824495</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.12756827286826755</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.13180120834654041</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.13601657757513275</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.14021443793312038</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.14439484668649216</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.1485578609880216</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.15270353787715141</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.15683193427987419</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.1609431070086379</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.16503711276222477</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.16911400812564648</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.17317384957003479</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.17721669345255064</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.18124259601626624</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.18525161339007268</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.18924380158859133</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.19321921651204887</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.1971779139462162</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.20111994956229773</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.20504537891684516</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.20895425745165708</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.21284664049371238</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.21672258325506988</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.22058214083278793</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.22442536820884063</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.22825232025004094</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.23206305170796659</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.23585761721887266</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.23963607130361775</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.24339846836760215</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.24714486270068614</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.25087530847712791</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.25458985975550297</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.25828857047865028</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.26197149447360368</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.26563868545153557</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.26929019700767254</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.27292608262126861</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.27654639565552408</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.28015118935754535</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.28374051685826962</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.28731443117243616</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.29087298519851967</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.29441623171869247</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.29794422339875959</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.3014570127881343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A99-48A9-B679-3EA268187D83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1620144863"/>
+        <c:axId val="1611889647"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1620144863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1611889647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1611889647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1620144863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>kahan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'C'!xvalues3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0080808080808081</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0161616161616163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0242424242424242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0323232323232323</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0404040404040404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0484848484848486</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0565656565656565</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0646464646464646</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0727272727272728</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0808080808080809</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0969696969696969</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1050505050505051</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1131313131313132</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1212121212121211</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1292929292929292</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1373737373737374</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1454545454545455</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1535353535353536</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1616161616161615</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1696969696969697</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1858585858585859</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1939393939393939</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.202020202020202</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2101010101010101</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2262626262626264</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2343434343434343</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2424242424242424</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2505050505050506</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2585858585858585</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2747474747474747</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.2828282828282829</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.290909090909091</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2989898989898989</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.307070707070707</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3151515151515152</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3232323232323231</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3313131313131312</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3393939393939394</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3474747474747475</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.3636363636363638</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.3717171717171717</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.3797979797979798</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.3878787878787879</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3959595959595958</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.404040404040404</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.4121212121212121</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.4202020202020202</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4282828282828284</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4525252525252526</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4606060606060607</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4686868686868686</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4767676767676767</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.4848484848484849</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.492929292929293</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5010101010101011</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.509090909090909</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5171717171717172</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5252525252525253</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.5333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.5414141414141413</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.5494949494949495</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.5575757575757576</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.5656565656565657</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5737373737373739</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.5818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.5898989898989899</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.5979797979797978</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.606060606060606</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.6141414141414141</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.6222222222222222</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.6303030303030304</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6383838383838385</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.6464646464646464</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.6545454545454545</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.6626262626262627</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6707070707070706</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6787878787878787</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.6868686868686869</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.694949494949495</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.7030303030303031</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7191919191919192</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.7272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.7353535353535352</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.7434343434343433</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.7515151515151515</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7595959595959596</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.7676767676767677</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.7757575757575759</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.783838383838384</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.7919191919191919</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'C'!yvalues3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6125864913436772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6155669100094494</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.618378098348044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6210189013259861</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6234880771171154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6257842950965746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6279061336641663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6298520778891608</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6316205169678879</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6332097414846154</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6346179404653487</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6358431982132289</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6368834909131826</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6377366829923627</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.638400523221712</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.638872640542665</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.639150539601576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6392315959728887</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6391130510503711</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.638792006583849</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6382654188368422</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6375300923382357</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6365826731986655</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6354196419595495</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6340373059397082</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6324317910411856</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6305990329722191</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.628534767841229</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6262345220712016</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6236936015788106</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6209070801570589</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6178697869940004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6145762932531664</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6110208976335698</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6071976108184742</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6031001387123807</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5987218643547354</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5940558283865547</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5890947079322708</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5838307937434131</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5782559654329853</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.572361664609264</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5661388656948461</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.559578044190725</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5526691421154335</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.5454015303152502</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.5377639673024965</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.529744554234103</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5213306855909972</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.512508995059235</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.5032652960447148</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.4935845161731256</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4834506250333683</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4728465543135982</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4617541093512068</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4501538709678212</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4380250862832029</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4253455469922218</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.41209145334001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.3982372617334247</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.3837555135714419</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.3686166424498374</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3527887563796086</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.3362373910330205</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.3189252292687774</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.300811781254154</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.2818530183523678</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2620009525202107</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.2412031511883848</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2194021753756665</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.1965349259858717</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.1725318796770301</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.1473161911367671</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.1208026327218359</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.0928963347760343</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.063491279907774</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0324684912117943</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.99969383661369227</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.96501534740453032</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.92825991598659818</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.88922919196437855</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.84769443108538323</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.8033899590864011</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.75600477798993859</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.70517164298923107</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.65045263626193861</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.59131979663269341</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.52712862113138592</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.45708103892663332</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.38017240201273422</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.29511342414975955</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.20021136392047617</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3181908400404745E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-2.9163227961932419E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.17146674115331553</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.34087166471074065</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.54921806405191587</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.81835079492810203</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1.1960046346767577</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85B7-411A-8134-C69C8726883B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1620144863"/>
+        <c:axId val="1611889647"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1620144863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1611889647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1611889647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1620144863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1064,6 +2836,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1619,20 +3471,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>62932</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>96611</xdr:rowOff>
+      <xdr:colOff>81982</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>20411</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1644,6 +4528,92 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>253432</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B88FD5A-8D76-4075-AD51-3F4148BFA5BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>5782</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106136</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534D6220-495A-43D8-A645-50CB9AD62CAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1957,30 +4927,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2213F5-DEFB-4BA9-A6D0-BFA81AA70A6B}">
-  <dimension ref="B2:Q57"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B2:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="H38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.59765625" customWidth="1"/>
-    <col min="13" max="13" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" cm="1">
+      <c r="C2" s="4">
         <f t="array" ref="C2">_xll.KAHAN.A</f>
-        <v>-1412235196</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-1332084666</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1994,8 +4966,12 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="R3">
+        <f t="array" ref="R3:R49">_xll.ARRAY.INTERVAL($C$3,$C$4,100)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>2</v>
       </c>
@@ -2006,18 +4982,24 @@
       <c r="H4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="N5" cm="1">
-        <f t="array" ref="N5">_xll.ARRAY.SET(_xll.ARRAY.INTERVAL($C$3,$C$4,100))</f>
-        <v>-412506</v>
-      </c>
-      <c r="O5" cm="1">
+      <c r="R4">
+        <v>1.0101010101010102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <f>_xll.ARRAY.SET(_xll.ARRAY.INTERVAL($C$3,$C$4,100))</f>
+        <v>13120212</v>
+      </c>
+      <c r="O5">
         <f t="array" ref="O5">_xll.ARRAY.SET(_xll.ARRAY.APPLY(function,_xll.ARRAY.GET(N5)))</f>
-        <v>-412316</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+        <v>13121492</v>
+      </c>
+      <c r="R5">
+        <v>1.0202020202020201</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2043,8 +5025,11 @@
         <v>7</v>
       </c>
       <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="R6">
+        <v>1.0303030303030303</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2066,16 +5051,26 @@
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I7">
+        <f t="array" ref="I7:J7">_xll.FALSE.POSITION(function,C3,C4)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
       <c r="K7">
         <f>J7-I7</f>
-        <v>0</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">_xll.XLL.UDF(function,I7)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+        <v>3.31351928059747</v>
+      </c>
+      <c r="R7">
+        <v>1.0404040404040404</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C8" cm="1">
         <f t="array" ref="C8:D8">_xll.BISECT(function,C7,D7)</f>
         <v>1.75</v>
@@ -2091,8 +5086,26 @@
         <f t="array" ref="F8">_xll.XLL.UDF(function,C8)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I8">
+        <f t="array" ref="I8:J8">_xll.FALSE.POSITION(function,I7,J7)</f>
+        <v>1.6658722156017967</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K57" si="1">J8-I8</f>
+        <v>0.33412778439820334</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">_xll.XLL.UDF(function,I8)</f>
+        <v>1.2938854517857425</v>
+      </c>
+      <c r="R8">
+        <v>1.0505050505050506</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C9" cm="1">
         <f t="array" ref="C9:D9">_xll.BISECT(function,C8,D8)</f>
         <v>1.75</v>
@@ -2108,8 +5121,26 @@
         <f t="array" ref="F9">_xll.XLL.UDF(function,C9)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I9">
+        <f t="array" ref="I9:J9">_xll.FALSE.POSITION(function,I8,J8)</f>
+        <v>1.7345615939805494</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0.26543840601945057</v>
+      </c>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">_xll.XLL.UDF(function,I9)</f>
+        <v>0.35507026572820344</v>
+      </c>
+      <c r="R9">
+        <v>1.0606060606060606</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C10" cm="1">
         <f t="array" ref="C10:D10">_xll.BISECT(function,C9,D9)</f>
         <v>1.75</v>
@@ -2125,8 +5156,26 @@
         <f t="array" ref="F10">_xll.XLL.UDF(function,C10)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I10">
+        <f t="array" ref="I10:J10">_xll.FALSE.POSITION(function,I9,J9)</f>
+        <v>1.7521616030715563</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.24783839692844367</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">_xll.XLL.UDF(function,I10)</f>
+        <v>8.7638074160922841E-2</v>
+      </c>
+      <c r="R10">
+        <v>1.0707070707070707</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C11" cm="1">
         <f t="array" ref="C11:D11">_xll.BISECT(function,C10,D10)</f>
         <v>1.75</v>
@@ -2142,8 +5191,26 @@
         <f t="array" ref="F11">_xll.XLL.UDF(function,C11)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I11">
+        <f t="array" ref="I11:J11">_xll.FALSE.POSITION(function,I10,J10)</f>
+        <v>1.7564307903630523</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0.24356920963694773</v>
+      </c>
+      <c r="L11" cm="1">
+        <f t="array" ref="L11">_xll.XLL.UDF(function,I11)</f>
+        <v>2.1056661126134912E-2</v>
+      </c>
+      <c r="R11">
+        <v>1.0808080808080809</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C12" cm="1">
         <f t="array" ref="C12:D12">_xll.BISECT(function,C11,D11)</f>
         <v>1.75</v>
@@ -2159,8 +5226,26 @@
         <f t="array" ref="F12">_xll.XLL.UDF(function,C12)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I12">
+        <f t="array" ref="I12:J12">_xll.FALSE.POSITION(function,I11,J11)</f>
+        <v>1.7574522395627383</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0.24254776043726167</v>
+      </c>
+      <c r="L12" cm="1">
+        <f t="array" ref="L12">_xll.XLL.UDF(function,I12)</f>
+        <v>5.026429905560903E-3</v>
+      </c>
+      <c r="R12">
+        <v>1.0909090909090908</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C13" cm="1">
         <f t="array" ref="C13:D13">_xll.BISECT(function,C12,D12)</f>
         <v>1.75</v>
@@ -2176,8 +5261,26 @@
         <f t="array" ref="F13">_xll.XLL.UDF(function,C13)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I13">
+        <f t="array" ref="I13:J13">_xll.FALSE.POSITION(function,I12,J12)</f>
+        <v>1.7576958245534797</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0.24230417544652028</v>
+      </c>
+      <c r="L13" cm="1">
+        <f t="array" ref="L13">_xll.XLL.UDF(function,I13)</f>
+        <v>1.1979918895814734E-3</v>
+      </c>
+      <c r="R13">
+        <v>1.101010101010101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C14" cm="1">
         <f t="array" ref="C14:D14">_xll.BISECT(function,C13,D13)</f>
         <v>1.75390625</v>
@@ -2193,8 +5296,26 @@
         <f t="array" ref="F14">_xll.XLL.UDF(function,C14)</f>
         <v>6.0510217910632491E-2</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I14">
+        <f t="array" ref="I14:J14">_xll.FALSE.POSITION(function,I13,J13)</f>
+        <v>1.7577538663341625</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0.24224613366583747</v>
+      </c>
+      <c r="L14" cm="1">
+        <f t="array" ref="L14">_xll.XLL.UDF(function,I14)</f>
+        <v>2.8542168946543711E-4</v>
+      </c>
+      <c r="R14">
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C15" cm="1">
         <f t="array" ref="C15:D15">_xll.BISECT(function,C14,D14)</f>
         <v>1.755859375</v>
@@ -2210,8 +5331,26 @@
         <f t="array" ref="F15">_xll.XLL.UDF(function,C15)</f>
         <v>3.0007383538759314E-2</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I15">
+        <f t="array" ref="I15:J15">_xll.FALSE.POSITION(function,I14,J14)</f>
+        <v>1.7577676940049665</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0.24223230599503354</v>
+      </c>
+      <c r="L15" cm="1">
+        <f t="array" ref="L15">_xll.XLL.UDF(function,I15)</f>
+        <v>6.7995734386983031E-5</v>
+      </c>
+      <c r="R15">
+        <v>1.1212121212121211</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C16" cm="1">
         <f t="array" ref="C16:D16">_xll.BISECT(function,C15,D15)</f>
         <v>1.7568359375</v>
@@ -2227,8 +5366,26 @@
         <f t="array" ref="F16">_xll.XLL.UDF(function,C16)</f>
         <v>1.4703062041917292E-2</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I16">
+        <f t="array" ref="I16:J16">_xll.FALSE.POSITION(function,I15,J15)</f>
+        <v>1.7577709881128771</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0.24222901188712287</v>
+      </c>
+      <c r="L16" cm="1">
+        <f t="array" ref="L16">_xll.XLL.UDF(function,I16)</f>
+        <v>1.6198217164031803E-5</v>
+      </c>
+      <c r="R16">
+        <v>1.1313131313131313</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" cm="1">
         <f t="array" ref="C17:D17">_xll.BISECT(function,C16,D16)</f>
         <v>1.75732421875</v>
@@ -2244,8 +5401,26 @@
         <f t="array" ref="F17">_xll.XLL.UDF(function,C17)</f>
         <v>7.0376580442257364E-3</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I17">
+        <f t="array" ref="I17:J17">_xll.FALSE.POSITION(function,I16,J16)</f>
+        <v>1.7577717728459625</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0.24222822715403747</v>
+      </c>
+      <c r="L17" cm="1">
+        <f t="array" ref="L17">_xll.XLL.UDF(function,I17)</f>
+        <v>3.8587850408333679E-6</v>
+      </c>
+      <c r="R17">
+        <v>1.1414141414141414</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" cm="1">
         <f t="array" ref="C18:D18">_xll.BISECT(function,C17,D17)</f>
         <v>1.757568359375</v>
@@ -2261,8 +5436,26 @@
         <f t="array" ref="F18">_xll.XLL.UDF(function,C18)</f>
         <v>3.2016430855001943E-3</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I18">
+        <f t="array" ref="I18:J18">_xll.FALSE.POSITION(function,I17,J17)</f>
+        <v>1.7577719597871502</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0.24222804021284983</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18">_xll.XLL.UDF(function,I18)</f>
+        <v>9.1924957246192207E-7</v>
+      </c>
+      <c r="R18">
+        <v>1.1515151515151516</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" cm="1">
         <f t="array" ref="C19:D19">_xll.BISECT(function,C18,D18)</f>
         <v>1.7576904296875</v>
@@ -2278,8 +5471,26 @@
         <f t="array" ref="F19">_xll.XLL.UDF(function,C19)</f>
         <v>1.2828070976524941E-3</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I19">
+        <f t="array" ref="I19:J19">_xll.FALSE.POSITION(function,I18,J18)</f>
+        <v>1.7577720043207465</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0.24222799567925346</v>
+      </c>
+      <c r="L19" cm="1">
+        <f t="array" ref="L19">_xll.XLL.UDF(function,I19)</f>
+        <v>2.1898590318869537E-7</v>
+      </c>
+      <c r="R19">
+        <v>1.1616161616161615</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" cm="1">
         <f t="array" ref="C20:D20">_xll.BISECT(function,C19,D19)</f>
         <v>1.75775146484375</v>
@@ -2295,8 +5506,26 @@
         <f t="array" ref="F20">_xll.XLL.UDF(function,C20)</f>
         <v>3.2318194303826431E-4</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I20">
+        <f t="array" ref="I20:J20">_xll.FALSE.POSITION(function,I19,J19)</f>
+        <v>1.7577720149296494</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0.24222798507035059</v>
+      </c>
+      <c r="L20" cm="1">
+        <f t="array" ref="L20">_xll.XLL.UDF(function,I20)</f>
+        <v>5.2167358433052868E-8</v>
+      </c>
+      <c r="R20">
+        <v>1.1717171717171717</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" cm="1">
         <f t="array" ref="C21:D21">_xll.BISECT(function,C20,D20)</f>
         <v>1.75775146484375</v>
@@ -2312,8 +5541,26 @@
         <f t="array" ref="F21">_xll.XLL.UDF(function,C21)</f>
         <v>3.2318194303826431E-4</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I21">
+        <f t="array" ref="I21:J21">_xll.FALSE.POSITION(function,I20,J20)</f>
+        <v>1.7577720174569282</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0.24222798254307176</v>
+      </c>
+      <c r="L21" cm="1">
+        <f t="array" ref="L21">_xll.XLL.UDF(function,I21)</f>
+        <v>1.2427435081008298E-8</v>
+      </c>
+      <c r="R21">
+        <v>1.1818181818181819</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" cm="1">
         <f t="array" ref="C22:D22">_xll.BISECT(function,C21,D21)</f>
         <v>1.7577667236328125</v>
@@ -2329,8 +5576,26 @@
         <f t="array" ref="F22">_xll.XLL.UDF(function,C22)</f>
         <v>8.3254073523164607E-5</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I22">
+        <f t="array" ref="I22:J22">_xll.FALSE.POSITION(function,I21,J21)</f>
+        <v>1.7577720180589826</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>0.24222798194101736</v>
+      </c>
+      <c r="L22" cm="1">
+        <f t="array" ref="L22">_xll.XLL.UDF(function,I22)</f>
+        <v>2.9604958484696908E-9</v>
+      </c>
+      <c r="R22">
+        <v>1.191919191919192</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" cm="1">
         <f t="array" ref="C23:D23">_xll.BISECT(function,C22,D22)</f>
         <v>1.7577667236328125</v>
@@ -2346,8 +5611,26 @@
         <f t="array" ref="F23">_xll.XLL.UDF(function,C23)</f>
         <v>8.3254073523164607E-5</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I23">
+        <f t="array" ref="I23:J23">_xll.FALSE.POSITION(function,I22,J22)</f>
+        <v>1.7577720182024057</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>0.24222798179759431</v>
+      </c>
+      <c r="L23" cm="1">
+        <f t="array" ref="L23">_xll.XLL.UDF(function,I23)</f>
+        <v>7.0525629780604504E-10</v>
+      </c>
+      <c r="R23">
+        <v>1.202020202020202</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" cm="1">
         <f t="array" ref="C24:D24">_xll.BISECT(function,C23,D23)</f>
         <v>1.7577705383300781</v>
@@ -2363,8 +5646,26 @@
         <f t="array" ref="F24">_xll.XLL.UDF(function,C24)</f>
         <v>2.3270757298021749E-5</v>
       </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I24">
+        <f t="array" ref="I24:J24">_xll.FALSE.POSITION(function,I23,J23)</f>
+        <v>1.7577720182365724</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.24222798176342764</v>
+      </c>
+      <c r="L24" cm="1">
+        <f t="array" ref="L24">_xll.XLL.UDF(function,I24)</f>
+        <v>1.6800605351363629E-10</v>
+      </c>
+      <c r="R24">
+        <v>1.2121212121212122</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" cm="1">
         <f t="array" ref="C25:D25">_xll.BISECT(function,C24,D24)</f>
         <v>1.7577705383300781</v>
@@ -2380,8 +5681,26 @@
         <f t="array" ref="F25">_xll.XLL.UDF(function,C25)</f>
         <v>2.3270757298021749E-5</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I25">
+        <f t="array" ref="I25:J25">_xll.FALSE.POSITION(function,I24,J24)</f>
+        <v>1.7577720182447114</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0.24222798175528859</v>
+      </c>
+      <c r="L25" cm="1">
+        <f t="array" ref="L25">_xll.XLL.UDF(function,I25)</f>
+        <v>4.0024872305366443E-11</v>
+      </c>
+      <c r="R25">
+        <v>1.2222222222222223</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" cm="1">
         <f t="array" ref="C26:D26">_xll.BISECT(function,C25,D25)</f>
         <v>1.7577714920043945</v>
@@ -2397,8 +5716,26 @@
         <f t="array" ref="F26">_xll.XLL.UDF(function,C26)</f>
         <v>8.2748439389490613E-6</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I26">
+        <f t="array" ref="I26:J26">_xll.FALSE.POSITION(function,I25,J25)</f>
+        <v>1.7577720182466505</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0.24222798175334948</v>
+      </c>
+      <c r="L26" cm="1">
+        <f t="array" ref="L26">_xll.XLL.UDF(function,I26)</f>
+        <v>9.5337071570611442E-12</v>
+      </c>
+      <c r="R26">
+        <v>1.2323232323232323</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" cm="1">
         <f t="array" ref="C27:D27">_xll.BISECT(function,C26,D26)</f>
         <v>1.7577719688415527</v>
@@ -2414,8 +5751,26 @@
         <f t="array" ref="F27">_xll.XLL.UDF(function,C27)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I27">
+        <f t="array" ref="I27:J27">_xll.FALSE.POSITION(function,I26,J26)</f>
+        <v>1.7577720182471124</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0.24222798175288762</v>
+      </c>
+      <c r="L27" cm="1">
+        <f t="array" ref="L27">_xll.XLL.UDF(function,I27)</f>
+        <v>2.2701840407535201E-12</v>
+      </c>
+      <c r="R27">
+        <v>1.2424242424242424</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" cm="1">
         <f t="array" ref="C28:D28">_xll.BISECT(function,C27,D27)</f>
         <v>1.7577719688415527</v>
@@ -2431,8 +5786,26 @@
         <f t="array" ref="F28">_xll.XLL.UDF(function,C28)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I28">
+        <f t="array" ref="I28:J28">_xll.FALSE.POSITION(function,I27,J27)</f>
+        <v>1.7577720182472223</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0.24222798175277771</v>
+      </c>
+      <c r="L28" cm="1">
+        <f t="array" ref="L28">_xll.XLL.UDF(function,I28)</f>
+        <v>5.4178883601707639E-13</v>
+      </c>
+      <c r="R28">
+        <v>1.2525252525252526</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" cm="1">
         <f t="array" ref="C29:D29">_xll.BISECT(function,C28,D28)</f>
         <v>1.7577719688415527</v>
@@ -2448,8 +5821,26 @@
         <f t="array" ref="F29">_xll.XLL.UDF(function,C29)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I29">
+        <f t="array" ref="I29:J29">_xll.FALSE.POSITION(function,I28,J28)</f>
+        <v>1.7577720182472485</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0.24222798175275151</v>
+      </c>
+      <c r="L29" cm="1">
+        <f t="array" ref="L29">_xll.XLL.UDF(function,I29)</f>
+        <v>1.3145040611561853E-13</v>
+      </c>
+      <c r="R29">
+        <v>1.2626262626262625</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" cm="1">
         <f t="array" ref="C30:D30">_xll.BISECT(function,C29,D29)</f>
         <v>1.7577719688415527</v>
@@ -2465,8 +5856,26 @@
         <f t="array" ref="F30">_xll.XLL.UDF(function,C30)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I30">
+        <f t="array" ref="I30:J30">_xll.FALSE.POSITION(function,I29,J29)</f>
+        <v>1.7577720182472549</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274507</v>
+      </c>
+      <c r="L30" cm="1">
+        <f t="array" ref="L30">_xll.XLL.UDF(function,I30)</f>
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="R30">
+        <v>1.2727272727272727</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" cm="1">
         <f t="array" ref="C31:D31">_xll.BISECT(function,C30,D30)</f>
         <v>1.7577719986438751</v>
@@ -2482,8 +5891,26 @@
         <f t="array" ref="F31">_xll.XLL.UDF(function,C31)</f>
         <v>3.0825125207911697E-7</v>
       </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I31">
+        <f t="array" ref="I31:J31">_xll.FALSE.POSITION(function,I30,J30)</f>
+        <v>1.7577720182472563</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274374</v>
+      </c>
+      <c r="L31" cm="1">
+        <f t="array" ref="L31">_xll.XLL.UDF(function,I31)</f>
+        <v>8.8817841970012523E-15</v>
+      </c>
+      <c r="R31">
+        <v>1.2828282828282829</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" cm="1">
         <f t="array" ref="C32:D32">_xll.BISECT(function,C31,D31)</f>
         <v>1.7577720135450363</v>
@@ -2499,8 +5926,26 @@
         <f t="array" ref="F32">_xll.XLL.UDF(function,C32)</f>
         <v>7.3939558475899503E-8</v>
       </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I32">
+        <f t="array" ref="I32:J32">_xll.FALSE.POSITION(function,I31,J31)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L32" cm="1">
+        <f t="array" ref="L32">_xll.XLL.UDF(function,I32)</f>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>1.2929292929292928</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C33" cm="1">
         <f t="array" ref="C33:D33">_xll.BISECT(function,C32,D32)</f>
         <v>1.7577720135450363</v>
@@ -2516,8 +5961,26 @@
         <f t="array" ref="F33">_xll.XLL.UDF(function,C33)</f>
         <v>7.3939558475899503E-8</v>
       </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I33">
+        <f t="array" ref="I33:J33">_xll.FALSE.POSITION(function,I32,J32)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L33" cm="1">
+        <f t="array" ref="L33">_xll.XLL.UDF(function,I33)</f>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>1.303030303030303</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C34" cm="1">
         <f t="array" ref="C34:D34">_xll.BISECT(function,C33,D33)</f>
         <v>1.7577720172703266</v>
@@ -2533,8 +5996,26 @@
         <f t="array" ref="F34">_xll.XLL.UDF(function,C34)</f>
         <v>1.5361633742827507E-8</v>
       </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I34">
+        <f t="array" ref="I34:J34">_xll.FALSE.POSITION(function,I33,J33)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L34" cm="1">
+        <f t="array" ref="L34">_xll.XLL.UDF(function,I34)</f>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>1.3131313131313131</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C35" cm="1">
         <f t="array" ref="C35:D35">_xll.BISECT(function,C34,D34)</f>
         <v>1.7577720172703266</v>
@@ -2550,8 +6031,26 @@
         <f t="array" ref="F35">_xll.XLL.UDF(function,C35)</f>
         <v>1.5361633742827507E-8</v>
       </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I35">
+        <f t="array" ref="I35:J35">_xll.FALSE.POSITION(function,I34,J34)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L35" cm="1">
+        <f t="array" ref="L35">_xll.XLL.UDF(function,I35)</f>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>1.3232323232323233</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C36" cm="1">
         <f t="array" ref="C36:D36">_xll.BISECT(function,C35,D35)</f>
         <v>1.7577720182016492</v>
@@ -2567,8 +6066,26 @@
         <f t="array" ref="F36">_xll.XLL.UDF(function,C36)</f>
         <v>7.1715255955950852E-10</v>
       </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I36">
+        <f t="array" ref="I36:J36">_xll.FALSE.POSITION(function,I35,J35)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L36" cm="1">
+        <f t="array" ref="L36">_xll.XLL.UDF(function,I36)</f>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1.3333333333333335</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C37" cm="1">
         <f t="array" ref="C37:D37">_xll.BISECT(function,C36,D36)</f>
         <v>1.7577720182016492</v>
@@ -2584,8 +6101,26 @@
         <f t="array" ref="F37">_xll.XLL.UDF(function,C37)</f>
         <v>7.1715255955950852E-10</v>
       </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I37">
+        <f t="array" ref="I37:J37">_xll.FALSE.POSITION(function,I36,J36)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L37" cm="1">
+        <f t="array" ref="L37">_xll.XLL.UDF(function,I37)</f>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>1.3434343434343434</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C38" cm="1">
         <f t="array" ref="C38:D38">_xll.BISECT(function,C37,D37)</f>
         <v>1.7577720182016492</v>
@@ -2601,8 +6136,26 @@
         <f t="array" ref="F38">_xll.XLL.UDF(function,C38)</f>
         <v>7.1715255955950852E-10</v>
       </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I38">
+        <f t="array" ref="I38:J38">_xll.FALSE.POSITION(function,I37,J37)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L38" cm="1">
+        <f t="array" ref="L38">_xll.XLL.UDF(function,I38)</f>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>1.3535353535353536</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C39" cm="1">
         <f t="array" ref="C39:D39">_xll.BISECT(function,C38,D38)</f>
         <v>1.7577720182016492</v>
@@ -2618,8 +6171,26 @@
         <f t="array" ref="F39">_xll.XLL.UDF(function,C39)</f>
         <v>7.1715255955950852E-10</v>
       </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I39">
+        <f t="array" ref="I39:J39">_xll.FALSE.POSITION(function,I38,J38)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L39" cm="1">
+        <f t="array" ref="L39">_xll.XLL.UDF(function,I39)</f>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>1.3636363636363638</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C40" cm="1">
         <f t="array" ref="C40:D40">_xll.BISECT(function,C39,D39)</f>
         <v>1.7577720182016492</v>
@@ -2635,8 +6206,26 @@
         <f t="array" ref="F40">_xll.XLL.UDF(function,C40)</f>
         <v>7.1715255955950852E-10</v>
       </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I40">
+        <f t="array" ref="I40:J40">_xll.FALSE.POSITION(function,I39,J39)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L40" cm="1">
+        <f t="array" ref="L40">_xll.XLL.UDF(function,I40)</f>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>1.3737373737373737</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C41" cm="1">
         <f t="array" ref="C41:D41">_xll.BISECT(function,C40,D40)</f>
         <v>1.757772018230753</v>
@@ -2652,8 +6241,26 @@
         <f t="array" ref="F41">_xll.XLL.UDF(function,C41)</f>
         <v>2.5951152338166139E-10</v>
       </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I41">
+        <f t="array" ref="I41:J41">_xll.FALSE.POSITION(function,I40,J40)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L41" cm="1">
+        <f t="array" ref="L41">_xll.XLL.UDF(function,I41)</f>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>1.3838383838383839</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C42" cm="1">
         <f t="array" ref="C42:D42">_xll.BISECT(function,C41,D41)</f>
         <v>1.7577720182453049</v>
@@ -2669,8 +6276,26 @@
         <f t="array" ref="F42">_xll.XLL.UDF(function,C42)</f>
         <v>3.0691893471157528E-11</v>
       </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I42">
+        <f t="array" ref="I42:J42">_xll.FALSE.POSITION(function,I41,J41)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L42" cm="1">
+        <f t="array" ref="L42">_xll.XLL.UDF(function,I42)</f>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>1.393939393939394</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C43" cm="1">
         <f t="array" ref="C43:D43">_xll.BISECT(function,C42,D42)</f>
         <v>1.7577720182453049</v>
@@ -2686,8 +6311,26 @@
         <f t="array" ref="F43">_xll.XLL.UDF(function,C43)</f>
         <v>3.0691893471157528E-11</v>
       </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I43">
+        <f t="array" ref="I43:J43">_xll.FALSE.POSITION(function,I42,J42)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L43" cm="1">
+        <f t="array" ref="L43">_xll.XLL.UDF(function,I43)</f>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>1.404040404040404</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C44" cm="1">
         <f t="array" ref="C44:D44">_xll.BISECT(function,C43,D43)</f>
         <v>1.7577720182453049</v>
@@ -2703,8 +6346,26 @@
         <f t="array" ref="F44">_xll.XLL.UDF(function,C44)</f>
         <v>3.0691893471157528E-11</v>
       </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I44">
+        <f t="array" ref="I44:J44">_xll.FALSE.POSITION(function,I43,J43)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L44" cm="1">
+        <f t="array" ref="L44">_xll.XLL.UDF(function,I44)</f>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>1.4141414141414141</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C45" cm="1">
         <f t="array" ref="C45:D45">_xll.BISECT(function,C44,D44)</f>
         <v>1.7577720182471239</v>
@@ -2720,8 +6381,26 @@
         <f t="array" ref="F45">_xll.XLL.UDF(function,C45)</f>
         <v>2.0889956431346945E-12</v>
       </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I45">
+        <f t="array" ref="I45:J45">_xll.FALSE.POSITION(function,I44,J44)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L45" cm="1">
+        <f t="array" ref="L45">_xll.XLL.UDF(function,I45)</f>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>1.4242424242424243</v>
+      </c>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C46" cm="1">
         <f t="array" ref="C46:D46">_xll.BISECT(function,C45,D45)</f>
         <v>1.7577720182471239</v>
@@ -2737,8 +6416,26 @@
         <f t="array" ref="F46">_xll.XLL.UDF(function,C46)</f>
         <v>2.0889956431346945E-12</v>
       </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I46">
+        <f t="array" ref="I46:J46">_xll.FALSE.POSITION(function,I45,J45)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L46" cm="1">
+        <f t="array" ref="L46">_xll.XLL.UDF(function,I46)</f>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>1.4343434343434343</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C47" cm="1">
         <f t="array" ref="C47:D47">_xll.BISECT(function,C46,D46)</f>
         <v>1.7577720182471239</v>
@@ -2754,8 +6451,26 @@
         <f t="array" ref="F47">_xll.XLL.UDF(function,C47)</f>
         <v>2.0889956431346945E-12</v>
       </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I47">
+        <f t="array" ref="I47:J47">_xll.FALSE.POSITION(function,I46,J46)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L47" cm="1">
+        <f t="array" ref="L47">_xll.XLL.UDF(function,I47)</f>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>1.4444444444444444</v>
+      </c>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C48" cm="1">
         <f t="array" ref="C48:D48">_xll.BISECT(function,C47,D47)</f>
         <v>1.7577720182471239</v>
@@ -2771,8 +6486,26 @@
         <f t="array" ref="F48">_xll.XLL.UDF(function,C48)</f>
         <v>2.0889956431346945E-12</v>
       </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I48">
+        <f t="array" ref="I48:J48">_xll.FALSE.POSITION(function,I47,J47)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L48" cm="1">
+        <f t="array" ref="L48">_xll.XLL.UDF(function,I48)</f>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>1.4545454545454546</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" cm="1">
         <f t="array" ref="C49:D49">_xll.BISECT(function,C48,D48)</f>
         <v>1.7577720182472376</v>
@@ -2788,8 +6521,26 @@
         <f t="array" ref="F49">_xll.XLL.UDF(function,C49)</f>
         <v>3.0198066269804258E-13</v>
       </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I49">
+        <f t="array" ref="I49:J49">_xll.FALSE.POSITION(function,I48,J48)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L49" cm="1">
+        <f t="array" ref="L49">_xll.XLL.UDF(function,I49)</f>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>1.4646464646464648</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" cm="1">
         <f t="array" ref="C50:D50">_xll.BISECT(function,C49,D49)</f>
         <v>1.7577720182472376</v>
@@ -2805,8 +6556,23 @@
         <f t="array" ref="F50">_xll.XLL.UDF(function,C50)</f>
         <v>3.0198066269804258E-13</v>
       </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I50">
+        <f t="array" ref="I50:J50">_xll.FALSE.POSITION(function,I49,J49)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L50" cm="1">
+        <f t="array" ref="L50">_xll.XLL.UDF(function,I50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" cm="1">
         <f t="array" ref="C51:D51">_xll.BISECT(function,C50,D50)</f>
         <v>1.7577720182472376</v>
@@ -2822,8 +6588,23 @@
         <f t="array" ref="F51">_xll.XLL.UDF(function,C51)</f>
         <v>3.0198066269804258E-13</v>
       </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I51">
+        <f t="array" ref="I51:J51">_xll.FALSE.POSITION(function,I50,J50)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L51" cm="1">
+        <f t="array" ref="L51">_xll.XLL.UDF(function,I51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" cm="1">
         <f t="array" ref="C52:D52">_xll.BISECT(function,C51,D51)</f>
         <v>1.7577720182472518</v>
@@ -2839,8 +6620,23 @@
         <f t="array" ref="F52">_xll.XLL.UDF(function,C52)</f>
         <v>7.815970093361102E-14</v>
       </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I52">
+        <f t="array" ref="I52:J52">_xll.FALSE.POSITION(function,I51,J51)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L52" cm="1">
+        <f t="array" ref="L52">_xll.XLL.UDF(function,I52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" cm="1">
         <f t="array" ref="C53:D53">_xll.BISECT(function,C52,D52)</f>
         <v>1.7577720182472518</v>
@@ -2856,8 +6652,23 @@
         <f t="array" ref="F53">_xll.XLL.UDF(function,C53)</f>
         <v>7.815970093361102E-14</v>
       </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I53">
+        <f t="array" ref="I53:J53">_xll.FALSE.POSITION(function,I52,J52)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L53" cm="1">
+        <f t="array" ref="L53">_xll.XLL.UDF(function,I53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" cm="1">
         <f t="array" ref="C54:D54">_xll.BISECT(function,C53,D53)</f>
         <v>1.7577720182472554</v>
@@ -2873,8 +6684,23 @@
         <f t="array" ref="F54">_xll.XLL.UDF(function,C54)</f>
         <v>2.3092638912203256E-14</v>
       </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I54">
+        <f t="array" ref="I54:J54">_xll.FALSE.POSITION(function,I53,J53)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L54" cm="1">
+        <f t="array" ref="L54">_xll.XLL.UDF(function,I54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" cm="1">
         <f t="array" ref="C55:D55">_xll.BISECT(function,C54,D54)</f>
         <v>1.7577720182472554</v>
@@ -2890,8 +6716,23 @@
         <f t="array" ref="F55">_xll.XLL.UDF(function,C55)</f>
         <v>2.3092638912203256E-14</v>
       </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I55">
+        <f t="array" ref="I55:J55">_xll.FALSE.POSITION(function,I54,J54)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L55" cm="1">
+        <f t="array" ref="L55">_xll.XLL.UDF(function,I55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" cm="1">
         <f t="array" ref="C56:D56">_xll.BISECT(function,C55,D55)</f>
         <v>1.7577720182472563</v>
@@ -2907,8 +6748,23 @@
         <f t="array" ref="F56">_xll.XLL.UDF(function,C56)</f>
         <v>8.8817841970012523E-15</v>
       </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I56">
+        <f t="array" ref="I56:J56">_xll.FALSE.POSITION(function,I55,J55)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L56" cm="1">
+        <f t="array" ref="L56">_xll.XLL.UDF(function,I56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" cm="1">
         <f t="array" ref="C57:D57">_xll.BISECT(function,C56,D56)</f>
         <v>1.7577720182472567</v>
@@ -2924,8 +6780,4977 @@
         <f t="array" ref="F57">_xll.XLL.UDF(function,C57)</f>
         <v>0</v>
       </c>
+      <c r="I57">
+        <f t="array" ref="I57:J57">_xll.FALSE.POSITION(function,I56,J56)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L57" cm="1">
+        <f t="array" ref="L57">_xll.XLL.UDF(function,I57)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE40AD0A-4A80-4C4B-BD61-1F914D2874F3}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B2:Q144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="15" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <f t="array" ref="C2">_xll.KAHAN.B</f>
+        <v>-1331036089</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.75</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" ref="D3">_xll.XLL.UDF(function,C3)</f>
+        <v>0.12873072591281076</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>1.78</v>
+      </c>
+      <c r="D4" cm="1">
+        <f t="array" ref="D4">_xll.XLL.UDF(function,C4)</f>
+        <v>-0.3014570127881343</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <f t="array" ref="N5">_xll.ARRAY.SET(_xll.ARRAY.INTERVAL($C$3,$C$4,100))</f>
+        <v>41488968</v>
+      </c>
+      <c r="O5">
+        <f t="array" ref="O5">_xll.ARRAY.SET(_xll.ARRAY.APPLY(function,_xll.ARRAY.GET(N5)))</f>
+        <v>41487628</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" ref="C7:D7">_xll.BISECT(function,C3,C4)</f>
+        <v>1.75</v>
+      </c>
+      <c r="D7">
+        <v>1.7650000000000001</v>
+      </c>
+      <c r="E7">
+        <f>D7-C7</f>
+        <v>1.5000000000000124E-2</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">_xll.XLL.UDF(function,C7)</f>
+        <v>0.12873072591281076</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <f t="array" ref="I7:J7">_xll.FALSE.POSITION(function,C3,C4)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J7">
+        <v>1.7589772939346118</v>
+      </c>
+      <c r="K7">
+        <f>J7-I7</f>
+        <v>8.9772939346117742E-3</v>
+      </c>
+      <c r="L7">
+        <f>_xll.XLL.UDF(function,J7)</f>
+        <v>-1.880020009563943E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C8" cm="1">
+        <f t="array" ref="C8:D8">_xll.BISECT(function,C7,D7)</f>
+        <v>1.7575000000000001</v>
+      </c>
+      <c r="D8">
+        <v>1.7650000000000001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E57" si="0">D8-C8</f>
+        <v>7.5000000000000622E-3</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">_xll.XLL.UDF(function,C8)</f>
+        <v>4.2851048789767088E-3</v>
+      </c>
+      <c r="I8">
+        <f t="array" ref="I8:J8">_xll.FALSE.POSITION(function,I7,J7)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J8">
+        <v>1.757833297032712</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K57" si="1">J8-I8</f>
+        <v>7.8332970327119611E-3</v>
+      </c>
+      <c r="L8">
+        <f>_xll.XLL.UDF(function,J8)</f>
+        <v>-9.631771086029417E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C9" cm="1">
+        <f t="array" ref="C9:D9">_xll.BISECT(function,C8,D8)</f>
+        <v>1.7575000000000001</v>
+      </c>
+      <c r="D9">
+        <v>1.76125</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999201E-3</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">_xll.XLL.UDF(function,C9)</f>
+        <v>4.2851048789767088E-3</v>
+      </c>
+      <c r="I9">
+        <f t="array" ref="I9:J9">_xll.FALSE.POSITION(function,I8,J8)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J9">
+        <v>1.7577751227299034</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>7.7751227299034387E-3</v>
+      </c>
+      <c r="L9">
+        <f>_xll.XLL.UDF(function,J9)</f>
+        <v>-4.8815089387255206E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C10" cm="1">
+        <f t="array" ref="C10:D10">_xll.BISECT(function,C9,D9)</f>
+        <v>1.7575000000000001</v>
+      </c>
+      <c r="D10">
+        <v>1.7593749999999999</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.874999999999849E-3</v>
+      </c>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">_xll.XLL.UDF(function,C10)</f>
+        <v>4.2851048789767088E-3</v>
+      </c>
+      <c r="I10">
+        <f t="array" ref="I10:J10">_xll.FALSE.POSITION(function,I9,J9)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J10">
+        <v>1.7577721754969182</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>7.7721754969182211E-3</v>
+      </c>
+      <c r="L10">
+        <f>_xll.XLL.UDF(function,J10)</f>
+        <v>-2.4726527262375342E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C11" cm="1">
+        <f t="array" ref="C11:D11">_xll.BISECT(function,C10,D10)</f>
+        <v>1.7575000000000001</v>
+      </c>
+      <c r="D11">
+        <v>1.7584374999999999</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>9.3749999999981348E-4</v>
+      </c>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">_xll.XLL.UDF(function,C11)</f>
+        <v>4.2851048789767088E-3</v>
+      </c>
+      <c r="I11">
+        <f t="array" ref="I11:J11">_xll.FALSE.POSITION(function,I10,J10)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J11">
+        <v>1.7577720262122647</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>7.7720262122646933E-3</v>
+      </c>
+      <c r="L11">
+        <f>_xll.XLL.UDF(function,J11)</f>
+        <v>-1.2524489989562682E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C12" cm="1">
+        <f t="array" ref="C12:D12">_xll.BISECT(function,C11,D11)</f>
+        <v>1.7575000000000001</v>
+      </c>
+      <c r="D12">
+        <v>1.7579687499999999</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>4.6874999999979572E-4</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">_xll.XLL.UDF(function,C12)</f>
+        <v>4.2851048789767088E-3</v>
+      </c>
+      <c r="I12">
+        <f t="array" ref="I12:J12">_xll.FALSE.POSITION(function,I11,J11)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J12">
+        <v>1.7577720186507002</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>7.7720186507002076E-3</v>
+      </c>
+      <c r="L12">
+        <f>_xll.XLL.UDF(function,J12)</f>
+        <v>-6.3439014041932751E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C13" cm="1">
+        <f t="array" ref="C13:D13">_xll.BISECT(function,C12,D12)</f>
+        <v>1.7577343750000001</v>
+      </c>
+      <c r="D13">
+        <v>1.7579687499999999</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2.3437499999978684E-4</v>
+      </c>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">_xll.XLL.UDF(function,C13)</f>
+        <v>5.920661103937519E-4</v>
+      </c>
+      <c r="I13">
+        <f t="array" ref="I13:J13">_xll.FALSE.POSITION(function,I12,J12)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J13">
+        <v>1.7577720182676921</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>7.7720182676921379E-3</v>
+      </c>
+      <c r="L13">
+        <f>_xll.XLL.UDF(function,J13)</f>
+        <v>-3.2133407046330831E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C14" cm="1">
+        <f t="array" ref="C14:D14">_xll.BISECT(function,C13,D13)</f>
+        <v>1.7577343750000001</v>
+      </c>
+      <c r="D14">
+        <v>1.7578515625</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.1718749999989342E-4</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">_xll.XLL.UDF(function,C14)</f>
+        <v>5.920661103937519E-4</v>
+      </c>
+      <c r="I14">
+        <f t="array" ref="I14:J14">_xll.FALSE.POSITION(function,I13,J13)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J14">
+        <v>1.7577720182482919</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>7.7720182482918787E-3</v>
+      </c>
+      <c r="L14">
+        <f>_xll.XLL.UDF(function,J14)</f>
+        <v>-1.6276757719424495E-11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C15" cm="1">
+        <f t="array" ref="C15:D15">_xll.BISECT(function,C14,D14)</f>
+        <v>1.7577343750000001</v>
+      </c>
+      <c r="D15">
+        <v>1.75779296875</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>5.8593749999946709E-5</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">_xll.XLL.UDF(function,C15)</f>
+        <v>5.920661103937519E-4</v>
+      </c>
+      <c r="I15">
+        <f t="array" ref="I15:J15">_xll.FALSE.POSITION(function,I14,J14)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J15">
+        <v>1.7577720182473091</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>7.7720182473091093E-3</v>
+      </c>
+      <c r="L15">
+        <f>_xll.XLL.UDF(function,J15)</f>
+        <v>-8.2245321664231597E-13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C16" cm="1">
+        <f t="array" ref="C16:D16">_xll.BISECT(function,C15,D15)</f>
+        <v>1.757763671875</v>
+      </c>
+      <c r="D16">
+        <v>1.75779296875</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2.9296874999973355E-5</v>
+      </c>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">_xll.XLL.UDF(function,C16)</f>
+        <v>1.3124895042171403E-4</v>
+      </c>
+      <c r="I16">
+        <f t="array" ref="I16:J16">_xll.FALSE.POSITION(function,I15,J15)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J16">
+        <v>1.7577720182472594</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>7.7720182472593713E-3</v>
+      </c>
+      <c r="L16">
+        <f>_xll.XLL.UDF(function,J16)</f>
+        <v>-3.907985046680551E-14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C17" cm="1">
+        <f t="array" ref="C17:D17">_xll.BISECT(function,C16,D16)</f>
+        <v>1.757763671875</v>
+      </c>
+      <c r="D17">
+        <v>1.7577783203125001</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.46484375000977E-5</v>
+      </c>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">_xll.XLL.UDF(function,C17)</f>
+        <v>1.3124895042171403E-4</v>
+      </c>
+      <c r="I17">
+        <f t="array" ref="I17:J17">_xll.FALSE.POSITION(function,I16,J16)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J17">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L17">
+        <f>_xll.XLL.UDF(function,J17)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18" cm="1">
+        <f t="array" ref="C18:D18">_xll.BISECT(function,C17,D17)</f>
+        <v>1.75777099609375</v>
+      </c>
+      <c r="D18">
+        <v>1.7577783203125001</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>7.3242187501598721E-6</v>
+      </c>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">_xll.XLL.UDF(function,C18)</f>
+        <v>1.6072852260684556E-5</v>
+      </c>
+      <c r="I18">
+        <f t="array" ref="I18:J18">_xll.FALSE.POSITION(function,I17,J17)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J18">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L18">
+        <f>_xll.XLL.UDF(function,J18)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" cm="1">
+        <f t="array" ref="C19:D19">_xll.BISECT(function,C18,D18)</f>
+        <v>1.75777099609375</v>
+      </c>
+      <c r="D19">
+        <v>1.7577746582031251</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>3.6621093750799361E-6</v>
+      </c>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">_xll.XLL.UDF(function,C19)</f>
+        <v>1.6072852260684556E-5</v>
+      </c>
+      <c r="I19">
+        <f t="array" ref="I19:J19">_xll.FALSE.POSITION(function,I18,J18)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J19">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L19">
+        <f>_xll.XLL.UDF(function,J19)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20" cm="1">
+        <f t="array" ref="C20:D20">_xll.BISECT(function,C19,D19)</f>
+        <v>1.75777099609375</v>
+      </c>
+      <c r="D20">
+        <v>1.7577728271484374</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1.8310546874289457E-6</v>
+      </c>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">_xll.XLL.UDF(function,C20)</f>
+        <v>1.6072852260684556E-5</v>
+      </c>
+      <c r="I20">
+        <f t="array" ref="I20:J20">_xll.FALSE.POSITION(function,I19,J19)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J20">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L20">
+        <f>_xll.XLL.UDF(function,J20)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21" cm="1">
+        <f t="array" ref="C21:D21">_xll.BISECT(function,C20,D20)</f>
+        <v>1.7577719116210937</v>
+      </c>
+      <c r="D21">
+        <v>1.7577728271484374</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>9.1552734371447286E-7</v>
+      </c>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">_xll.XLL.UDF(function,C21)</f>
+        <v>1.6766327850525897E-6</v>
+      </c>
+      <c r="I21">
+        <f t="array" ref="I21:J21">_xll.FALSE.POSITION(function,I20,J20)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J21">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L21">
+        <f>_xll.XLL.UDF(function,J21)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C22" cm="1">
+        <f t="array" ref="C22:D22">_xll.BISECT(function,C21,D21)</f>
+        <v>1.7577719116210937</v>
+      </c>
+      <c r="D22">
+        <v>1.7577723693847656</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>4.5776367185723643E-7</v>
+      </c>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">_xll.XLL.UDF(function,C22)</f>
+        <v>1.6766327850525897E-6</v>
+      </c>
+      <c r="I22">
+        <f t="array" ref="I22:J22">_xll.FALSE.POSITION(function,I21,J21)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J22">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L22">
+        <f>_xll.XLL.UDF(function,J22)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C23" cm="1">
+        <f t="array" ref="C23:D23">_xll.BISECT(function,C22,D22)</f>
+        <v>1.7577719116210937</v>
+      </c>
+      <c r="D23">
+        <v>1.7577721405029296</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>2.2888183592861822E-7</v>
+      </c>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">_xll.XLL.UDF(function,C23)</f>
+        <v>1.6766327850525897E-6</v>
+      </c>
+      <c r="I23">
+        <f t="array" ref="I23:J23">_xll.FALSE.POSITION(function,I22,J22)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J23">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L23">
+        <f>_xll.XLL.UDF(function,J23)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C24" cm="1">
+        <f t="array" ref="C24:D24">_xll.BISECT(function,C23,D23)</f>
+        <v>1.7577719116210937</v>
+      </c>
+      <c r="D24">
+        <v>1.7577720260620118</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1.1444091807533141E-7</v>
+      </c>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">_xll.XLL.UDF(function,C24)</f>
+        <v>1.6766327850525897E-6</v>
+      </c>
+      <c r="I24">
+        <f t="array" ref="I24:J24">_xll.FALSE.POSITION(function,I23,J23)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J24">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L24">
+        <f>_xll.XLL.UDF(function,J24)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C25" cm="1">
+        <f t="array" ref="C25:D25">_xll.BISECT(function,C24,D24)</f>
+        <v>1.7577719688415527</v>
+      </c>
+      <c r="D25">
+        <v>1.7577720260620118</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>5.7220459037665705E-8</v>
+      </c>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">_xll.XLL.UDF(function,C25)</f>
+        <v>7.7687491617517423E-7</v>
+      </c>
+      <c r="I25">
+        <f t="array" ref="I25:J25">_xll.FALSE.POSITION(function,I24,J24)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J25">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L25">
+        <f>_xll.XLL.UDF(function,J25)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C26" cm="1">
+        <f t="array" ref="C26:D26">_xll.BISECT(function,C25,D25)</f>
+        <v>1.7577719974517823</v>
+      </c>
+      <c r="D26">
+        <v>1.7577720260620118</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>2.8610229518832853E-8</v>
+      </c>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">_xll.XLL.UDF(function,C26)</f>
+        <v>3.2699624008536432E-7</v>
+      </c>
+      <c r="I26">
+        <f t="array" ref="I26:J26">_xll.FALSE.POSITION(function,I25,J25)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J26">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L26">
+        <f>_xll.XLL.UDF(function,J26)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C27" cm="1">
+        <f t="array" ref="C27:D27">_xll.BISECT(function,C26,D26)</f>
+        <v>1.7577720117568969</v>
+      </c>
+      <c r="D27">
+        <v>1.7577720260620118</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1.4305114870438729E-8</v>
+      </c>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">_xll.XLL.UDF(function,C27)</f>
+        <v>1.0205696709952861E-7</v>
+      </c>
+      <c r="I27">
+        <f t="array" ref="I27:J27">_xll.FALSE.POSITION(function,I26,J26)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J27">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L27">
+        <f>_xll.XLL.UDF(function,J27)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C28" cm="1">
+        <f t="array" ref="C28:D28">_xll.BISECT(function,C27,D27)</f>
+        <v>1.7577720117568969</v>
+      </c>
+      <c r="D28">
+        <v>1.7577720189094543</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>7.1525574352193644E-9</v>
+      </c>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">_xll.XLL.UDF(function,C28)</f>
+        <v>1.0205696709952861E-7</v>
+      </c>
+      <c r="I28">
+        <f t="array" ref="I28:J28">_xll.FALSE.POSITION(function,I27,J27)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J28">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L28">
+        <f>_xll.XLL.UDF(function,J28)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C29" cm="1">
+        <f t="array" ref="C29:D29">_xll.BISECT(function,C28,D28)</f>
+        <v>1.7577720153331757</v>
+      </c>
+      <c r="D29">
+        <v>1.7577720189094543</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>3.5762786065873797E-9</v>
+      </c>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">_xll.XLL.UDF(function,C29)</f>
+        <v>4.5822154293162498E-8</v>
+      </c>
+      <c r="I29">
+        <f t="array" ref="I29:J29">_xll.FALSE.POSITION(function,I28,J28)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J29">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L29">
+        <f>_xll.XLL.UDF(function,J29)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C30" cm="1">
+        <f t="array" ref="C30:D30">_xll.BISECT(function,C29,D29)</f>
+        <v>1.7577720171213151</v>
+      </c>
+      <c r="D30">
+        <v>1.7577720189094543</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1.7881391922713874E-9</v>
+      </c>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">_xll.XLL.UDF(function,C30)</f>
+        <v>1.7704748112024049E-8</v>
+      </c>
+      <c r="I30">
+        <f t="array" ref="I30:J30">_xll.FALSE.POSITION(function,I29,J29)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J30">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L30">
+        <f>_xll.XLL.UDF(function,J30)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C31" cm="1">
+        <f t="array" ref="C31:D31">_xll.BISECT(function,C30,D30)</f>
+        <v>1.7577720180153849</v>
+      </c>
+      <c r="D31">
+        <v>1.7577720189094543</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>8.9406948511339124E-10</v>
+      </c>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">_xll.XLL.UDF(function,C31)</f>
+        <v>3.6460452434994295E-9</v>
+      </c>
+      <c r="I31">
+        <f t="array" ref="I31:J31">_xll.FALSE.POSITION(function,I30,J30)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J31">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L31">
+        <f>_xll.XLL.UDF(function,J31)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C32" cm="1">
+        <f t="array" ref="C32:D32">_xll.BISECT(function,C31,D31)</f>
+        <v>1.7577720180153849</v>
+      </c>
+      <c r="D32">
+        <v>1.7577720184624197</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>4.4703485357899808E-10</v>
+      </c>
+      <c r="F32" cm="1">
+        <f t="array" ref="F32">_xll.XLL.UDF(function,C32)</f>
+        <v>3.6460452434994295E-9</v>
+      </c>
+      <c r="I32">
+        <f t="array" ref="I32:J32">_xll.FALSE.POSITION(function,I31,J31)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J32">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L32">
+        <f>_xll.XLL.UDF(function,J32)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C33" cm="1">
+        <f t="array" ref="C33:D33">_xll.BISECT(function,C32,D32)</f>
+        <v>1.7577720182389023</v>
+      </c>
+      <c r="D33">
+        <v>1.7577720184624197</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>2.2351742678949904E-10</v>
+      </c>
+      <c r="F33" cm="1">
+        <f t="array" ref="F33">_xll.XLL.UDF(function,C33)</f>
+        <v>1.3137047005784552E-10</v>
+      </c>
+      <c r="I33">
+        <f t="array" ref="I33:J33">_xll.FALSE.POSITION(function,I32,J32)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J33">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L33">
+        <f>_xll.XLL.UDF(function,J33)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C34" cm="1">
+        <f t="array" ref="C34:D34">_xll.BISECT(function,C33,D33)</f>
+        <v>1.7577720182389023</v>
+      </c>
+      <c r="D34">
+        <v>1.7577720183506611</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1.1175882441705198E-10</v>
+      </c>
+      <c r="F34" cm="1">
+        <f t="array" ref="F34">_xll.XLL.UDF(function,C34)</f>
+        <v>1.3137047005784552E-10</v>
+      </c>
+      <c r="I34">
+        <f t="array" ref="I34:J34">_xll.FALSE.POSITION(function,I33,J33)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J34">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L34">
+        <f>_xll.XLL.UDF(function,J34)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C35" cm="1">
+        <f t="array" ref="C35:D35">_xll.BISECT(function,C34,D34)</f>
+        <v>1.7577720182389023</v>
+      </c>
+      <c r="D35">
+        <v>1.7577720182947818</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>5.5879523230828454E-11</v>
+      </c>
+      <c r="F35" cm="1">
+        <f t="array" ref="F35">_xll.XLL.UDF(function,C35)</f>
+        <v>1.3137047005784552E-10</v>
+      </c>
+      <c r="I35">
+        <f t="array" ref="I35:J35">_xll.FALSE.POSITION(function,I34,J34)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J35">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L35">
+        <f>_xll.XLL.UDF(function,J35)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C36" cm="1">
+        <f t="array" ref="C36:D36">_xll.BISECT(function,C35,D35)</f>
+        <v>1.7577720182389023</v>
+      </c>
+      <c r="D36">
+        <v>1.7577720182668419</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>2.7939650593111764E-11</v>
+      </c>
+      <c r="F36" cm="1">
+        <f t="array" ref="F36">_xll.XLL.UDF(function,C36)</f>
+        <v>1.3137047005784552E-10</v>
+      </c>
+      <c r="I36">
+        <f t="array" ref="I36:J36">_xll.FALSE.POSITION(function,I35,J35)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J36">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L36">
+        <f>_xll.XLL.UDF(function,J36)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C37" cm="1">
+        <f t="array" ref="C37:D37">_xll.BISECT(function,C36,D36)</f>
+        <v>1.7577720182389023</v>
+      </c>
+      <c r="D37">
+        <v>1.7577720182528722</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1.3969936318858345E-11</v>
+      </c>
+      <c r="F37" cm="1">
+        <f t="array" ref="F37">_xll.XLL.UDF(function,C37)</f>
+        <v>1.3137047005784552E-10</v>
+      </c>
+      <c r="I37">
+        <f t="array" ref="I37:J37">_xll.FALSE.POSITION(function,I36,J36)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J37">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L37">
+        <f>_xll.XLL.UDF(function,J37)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C38" cm="1">
+        <f t="array" ref="C38:D38">_xll.BISECT(function,C37,D37)</f>
+        <v>1.7577720182458871</v>
+      </c>
+      <c r="D38">
+        <v>1.7577720182528722</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>6.9850791817316349E-12</v>
+      </c>
+      <c r="F38" cm="1">
+        <f t="array" ref="F38">_xll.XLL.UDF(function,C38)</f>
+        <v>2.1536550320888637E-11</v>
+      </c>
+      <c r="I38">
+        <f t="array" ref="I38:J38">_xll.FALSE.POSITION(function,I37,J37)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J38">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L38">
+        <f>_xll.XLL.UDF(function,J38)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C39" cm="1">
+        <f t="array" ref="C39:D39">_xll.BISECT(function,C38,D38)</f>
+        <v>1.7577720182458871</v>
+      </c>
+      <c r="D39">
+        <v>1.7577720182493797</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>3.4925395908658174E-12</v>
+      </c>
+      <c r="F39" cm="1">
+        <f t="array" ref="F39">_xll.XLL.UDF(function,C39)</f>
+        <v>2.1536550320888637E-11</v>
+      </c>
+      <c r="I39">
+        <f t="array" ref="I39:J39">_xll.FALSE.POSITION(function,I38,J38)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J39">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L39">
+        <f>_xll.XLL.UDF(function,J39)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C40" cm="1">
+        <f t="array" ref="C40:D40">_xll.BISECT(function,C39,D39)</f>
+        <v>1.7577720182458871</v>
+      </c>
+      <c r="D40">
+        <v>1.7577720182476333</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1.7461587731304462E-12</v>
+      </c>
+      <c r="F40" cm="1">
+        <f t="array" ref="F40">_xll.XLL.UDF(function,C40)</f>
+        <v>2.1536550320888637E-11</v>
+      </c>
+      <c r="I40">
+        <f t="array" ref="I40:J40">_xll.FALSE.POSITION(function,I39,J39)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J40">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L40">
+        <f>_xll.XLL.UDF(function,J40)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C41" cm="1">
+        <f t="array" ref="C41:D41">_xll.BISECT(function,C40,D40)</f>
+        <v>1.7577720182467602</v>
+      </c>
+      <c r="D41">
+        <v>1.7577720182476333</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>8.730793865652231E-13</v>
+      </c>
+      <c r="F41" cm="1">
+        <f t="array" ref="F41">_xll.XLL.UDF(function,C41)</f>
+        <v>7.808864666003501E-12</v>
+      </c>
+      <c r="I41">
+        <f t="array" ref="I41:J41">_xll.FALSE.POSITION(function,I40,J40)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J41">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L41">
+        <f>_xll.XLL.UDF(function,J41)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C42" cm="1">
+        <f t="array" ref="C42:D42">_xll.BISECT(function,C41,D41)</f>
+        <v>1.7577720182471968</v>
+      </c>
+      <c r="D42">
+        <v>1.7577720182476333</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>4.3653969328261155E-13</v>
+      </c>
+      <c r="F42" cm="1">
+        <f t="array" ref="F42">_xll.XLL.UDF(function,C42)</f>
+        <v>9.43245481721533E-13</v>
+      </c>
+      <c r="I42">
+        <f t="array" ref="I42:J42">_xll.FALSE.POSITION(function,I41,J41)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J42">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L42">
+        <f>_xll.XLL.UDF(function,J42)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C43" cm="1">
+        <f t="array" ref="C43:D43">_xll.BISECT(function,C42,D42)</f>
+        <v>1.7577720182471968</v>
+      </c>
+      <c r="D43">
+        <v>1.757772018247415</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>2.1826984664130578E-13</v>
+      </c>
+      <c r="F43" cm="1">
+        <f t="array" ref="F43">_xll.XLL.UDF(function,C43)</f>
+        <v>9.43245481721533E-13</v>
+      </c>
+      <c r="I43">
+        <f t="array" ref="I43:J43">_xll.FALSE.POSITION(function,I42,J42)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J43">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L43">
+        <f>_xll.XLL.UDF(function,J43)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C44" cm="1">
+        <f t="array" ref="C44:D44">_xll.BISECT(function,C43,D43)</f>
+        <v>1.7577720182471968</v>
+      </c>
+      <c r="D44">
+        <v>1.757772018247306</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>1.092459456231154E-13</v>
+      </c>
+      <c r="F44" cm="1">
+        <f t="array" ref="F44">_xll.XLL.UDF(function,C44)</f>
+        <v>9.43245481721533E-13</v>
+      </c>
+      <c r="I44">
+        <f t="array" ref="I44:J44">_xll.FALSE.POSITION(function,I43,J43)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J44">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L44">
+        <f>_xll.XLL.UDF(function,J44)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C45" cm="1">
+        <f t="array" ref="C45:D45">_xll.BISECT(function,C44,D44)</f>
+        <v>1.7577720182472514</v>
+      </c>
+      <c r="D45">
+        <v>1.757772018247306</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>5.4622972811557702E-14</v>
+      </c>
+      <c r="F45" cm="1">
+        <f t="array" ref="F45">_xll.XLL.UDF(function,C45)</f>
+        <v>8.3488771451811772E-14</v>
+      </c>
+      <c r="I45">
+        <f t="array" ref="I45:J45">_xll.FALSE.POSITION(function,I44,J44)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J45">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L45">
+        <f>_xll.XLL.UDF(function,J45)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C46" cm="1">
+        <f t="array" ref="C46:D46">_xll.BISECT(function,C45,D45)</f>
+        <v>1.7577720182472514</v>
+      </c>
+      <c r="D46">
+        <v>1.7577720182472787</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>2.7311486405778851E-14</v>
+      </c>
+      <c r="F46" cm="1">
+        <f t="array" ref="F46">_xll.XLL.UDF(function,C46)</f>
+        <v>8.3488771451811772E-14</v>
+      </c>
+      <c r="I46">
+        <f t="array" ref="I46:J46">_xll.FALSE.POSITION(function,I45,J45)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J46">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L46">
+        <f>_xll.XLL.UDF(function,J46)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C47" cm="1">
+        <f t="array" ref="C47:D47">_xll.BISECT(function,C46,D46)</f>
+        <v>1.7577720182472514</v>
+      </c>
+      <c r="D47">
+        <v>1.7577720182472651</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>1.3766765505351941E-14</v>
+      </c>
+      <c r="F47" cm="1">
+        <f t="array" ref="F47">_xll.XLL.UDF(function,C47)</f>
+        <v>8.3488771451811772E-14</v>
+      </c>
+      <c r="I47">
+        <f t="array" ref="I47:J47">_xll.FALSE.POSITION(function,I46,J46)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J47">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L47">
+        <f>_xll.XLL.UDF(function,J47)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C48" cm="1">
+        <f t="array" ref="C48:D48">_xll.BISECT(function,C47,D47)</f>
+        <v>1.7577720182472514</v>
+      </c>
+      <c r="D48">
+        <v>1.7577720182472583</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>6.8833827526759706E-15</v>
+      </c>
+      <c r="F48" cm="1">
+        <f t="array" ref="F48">_xll.XLL.UDF(function,C48)</f>
+        <v>8.3488771451811772E-14</v>
+      </c>
+      <c r="I48">
+        <f t="array" ref="I48:J48">_xll.FALSE.POSITION(function,I47,J47)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J48">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L48">
+        <f>_xll.XLL.UDF(function,J48)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C49" cm="1">
+        <f t="array" ref="C49:D49">_xll.BISECT(function,C48,D48)</f>
+        <v>1.7577720182472549</v>
+      </c>
+      <c r="D49">
+        <v>1.7577720182472583</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>3.3306690738754696E-15</v>
+      </c>
+      <c r="F49" cm="1">
+        <f t="array" ref="F49">_xll.XLL.UDF(function,C49)</f>
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="I49">
+        <f t="array" ref="I49:J49">_xll.FALSE.POSITION(function,I48,J48)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J49">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L49">
+        <f>_xll.XLL.UDF(function,J49)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C50" cm="1">
+        <f t="array" ref="C50:D50">_xll.BISECT(function,C49,D49)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D50">
+        <v>1.7577720182472583</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F50" cm="1">
+        <f t="array" ref="F50">_xll.XLL.UDF(function,C50)</f>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="array" ref="I50:J50">_xll.FALSE.POSITION(function,I49,J49)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J50">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L50">
+        <f>_xll.XLL.UDF(function,J50)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C51" cm="1">
+        <f t="array" ref="C51:D51">_xll.BISECT(function,C50,D50)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D51">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51" cm="1">
+        <f t="array" ref="F51">_xll.XLL.UDF(function,C51)</f>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="array" ref="I51:J51">_xll.FALSE.POSITION(function,I50,J50)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J51">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L51">
+        <f>_xll.XLL.UDF(function,J51)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C52" cm="1">
+        <f t="array" ref="C52:D52">_xll.BISECT(function,C51,D51)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D52">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F52" cm="1">
+        <f t="array" ref="F52">_xll.XLL.UDF(function,C52)</f>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="array" ref="I52:J52">_xll.FALSE.POSITION(function,I51,J51)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J52">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L52">
+        <f>_xll.XLL.UDF(function,J52)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C53" cm="1">
+        <f t="array" ref="C53:D53">_xll.BISECT(function,C52,D52)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D53">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F53" cm="1">
+        <f t="array" ref="F53">_xll.XLL.UDF(function,C53)</f>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="array" ref="I53:J53">_xll.FALSE.POSITION(function,I52,J52)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J53">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L53">
+        <f>_xll.XLL.UDF(function,J53)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C54" cm="1">
+        <f t="array" ref="C54:D54">_xll.BISECT(function,C53,D53)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D54">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F54" cm="1">
+        <f t="array" ref="F54">_xll.XLL.UDF(function,C54)</f>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="array" ref="I54:J54">_xll.FALSE.POSITION(function,I53,J53)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J54">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L54">
+        <f>_xll.XLL.UDF(function,J54)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C55" cm="1">
+        <f t="array" ref="C55:D55">_xll.BISECT(function,C54,D54)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D55">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F55" cm="1">
+        <f t="array" ref="F55">_xll.XLL.UDF(function,C55)</f>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="array" ref="I55:J55">_xll.FALSE.POSITION(function,I54,J54)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J55">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L55">
+        <f>_xll.XLL.UDF(function,J55)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C56" cm="1">
+        <f t="array" ref="C56:D56">_xll.BISECT(function,C55,D55)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D56">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F56" cm="1">
+        <f t="array" ref="F56">_xll.XLL.UDF(function,C56)</f>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="array" ref="I56:J56">_xll.FALSE.POSITION(function,I55,J55)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J56">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L56">
+        <f>_xll.XLL.UDF(function,J56)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C57" cm="1">
+        <f t="array" ref="C57:D57">_xll.BISECT(function,C56,D56)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D57">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F57" cm="1">
+        <f t="array" ref="F57">_xll.XLL.UDF(function,C57)</f>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="array" ref="I57:J57">_xll.FALSE.POSITION(function,I56,J56)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J57">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L57">
+        <f>_xll.XLL.UDF(function,J57)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <f t="array" ref="I58:J58">_xll.FALSE.POSITION(function,I57,J57)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J58">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ref="K58:K78" si="2">J58-I58</f>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L58">
+        <f>_xll.XLL.UDF(function,J58)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <f t="array" ref="I59:J59">_xll.FALSE.POSITION(function,I58,J58)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J59">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L59">
+        <f>_xll.XLL.UDF(function,J59)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <f t="array" ref="I60:J60">_xll.FALSE.POSITION(function,I59,J59)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J60">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L60">
+        <f>_xll.XLL.UDF(function,J60)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <f t="array" ref="I61:J61">_xll.FALSE.POSITION(function,I60,J60)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J61">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L61">
+        <f>_xll.XLL.UDF(function,J61)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <f t="array" ref="I62:J62">_xll.FALSE.POSITION(function,I61,J61)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J62">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L62">
+        <f>_xll.XLL.UDF(function,J62)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <f t="array" ref="I63:J63">_xll.FALSE.POSITION(function,I62,J62)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J63">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L63">
+        <f>_xll.XLL.UDF(function,J63)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <f t="array" ref="I64:J64">_xll.FALSE.POSITION(function,I63,J63)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J64">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L64">
+        <f>_xll.XLL.UDF(function,J64)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="65" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <f t="array" ref="I65:J65">_xll.FALSE.POSITION(function,I64,J64)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J65">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L65">
+        <f>_xll.XLL.UDF(function,J65)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="66" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <f t="array" ref="I66:J66">_xll.FALSE.POSITION(function,I65,J65)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J66">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L66">
+        <f>_xll.XLL.UDF(function,J66)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="67" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <f t="array" ref="I67:J67">_xll.FALSE.POSITION(function,I66,J66)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J67">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L67">
+        <f>_xll.XLL.UDF(function,J67)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="68" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <f t="array" ref="I68:J68">_xll.FALSE.POSITION(function,I67,J67)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J68">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L68">
+        <f>_xll.XLL.UDF(function,J68)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="69" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <f t="array" ref="I69:J69">_xll.FALSE.POSITION(function,I68,J68)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J69">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L69">
+        <f>_xll.XLL.UDF(function,J69)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="70" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <f t="array" ref="I70:J70">_xll.FALSE.POSITION(function,I69,J69)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J70">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L70">
+        <f>_xll.XLL.UDF(function,J70)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="71" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <f t="array" ref="I71:J71">_xll.FALSE.POSITION(function,I70,J70)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J71">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L71">
+        <f>_xll.XLL.UDF(function,J71)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="72" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <f t="array" ref="I72:J72">_xll.FALSE.POSITION(function,I71,J71)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J72">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L72">
+        <f>_xll.XLL.UDF(function,J72)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="73" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <f t="array" ref="I73:J73">_xll.FALSE.POSITION(function,I72,J72)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J73">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L73">
+        <f>_xll.XLL.UDF(function,J73)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="74" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <f t="array" ref="I74:J74">_xll.FALSE.POSITION(function,I73,J73)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J74">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L74">
+        <f>_xll.XLL.UDF(function,J74)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="75" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <f t="array" ref="I75:J75">_xll.FALSE.POSITION(function,I74,J74)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J75">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L75">
+        <f>_xll.XLL.UDF(function,J75)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="76" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <f t="array" ref="I76:J76">_xll.FALSE.POSITION(function,I75,J75)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J76">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L76">
+        <f>_xll.XLL.UDF(function,J76)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="77" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <f t="array" ref="I77:J77">_xll.FALSE.POSITION(function,I76,J76)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J77">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L77">
+        <f>_xll.XLL.UDF(function,J77)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="78" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <f t="array" ref="I78:J78">_xll.FALSE.POSITION(function,I77,J77)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J78">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="2"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L78">
+        <f>_xll.XLL.UDF(function,J78)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="79" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <f t="array" ref="I79:J79">_xll.FALSE.POSITION(function,I78,J78)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J79">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K79">
+        <f t="shared" ref="K79:K99" si="3">J79-I79</f>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L79">
+        <f>_xll.XLL.UDF(function,J79)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="80" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <f t="array" ref="I80:J80">_xll.FALSE.POSITION(function,I79,J79)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J80">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L80">
+        <f>_xll.XLL.UDF(function,J80)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="81" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <f t="array" ref="I81:J81">_xll.FALSE.POSITION(function,I80,J80)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J81">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L81">
+        <f>_xll.XLL.UDF(function,J81)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="82" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <f t="array" ref="I82:J82">_xll.FALSE.POSITION(function,I81,J81)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J82">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L82">
+        <f>_xll.XLL.UDF(function,J82)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="83" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <f t="array" ref="I83:J83">_xll.FALSE.POSITION(function,I82,J82)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J83">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L83">
+        <f>_xll.XLL.UDF(function,J83)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="84" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <f t="array" ref="I84:J84">_xll.FALSE.POSITION(function,I83,J83)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J84">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L84">
+        <f>_xll.XLL.UDF(function,J84)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="85" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <f t="array" ref="I85:J85">_xll.FALSE.POSITION(function,I84,J84)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J85">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L85">
+        <f>_xll.XLL.UDF(function,J85)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="86" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <f t="array" ref="I86:J86">_xll.FALSE.POSITION(function,I85,J85)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J86">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L86">
+        <f>_xll.XLL.UDF(function,J86)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="87" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <f t="array" ref="I87:J87">_xll.FALSE.POSITION(function,I86,J86)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J87">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L87">
+        <f>_xll.XLL.UDF(function,J87)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="88" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <f t="array" ref="I88:J88">_xll.FALSE.POSITION(function,I87,J87)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J88">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L88">
+        <f>_xll.XLL.UDF(function,J88)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="89" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <f t="array" ref="I89:J89">_xll.FALSE.POSITION(function,I88,J88)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J89">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L89">
+        <f>_xll.XLL.UDF(function,J89)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="90" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <f t="array" ref="I90:J90">_xll.FALSE.POSITION(function,I89,J89)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J90">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L90">
+        <f>_xll.XLL.UDF(function,J90)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="91" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <f t="array" ref="I91:J91">_xll.FALSE.POSITION(function,I90,J90)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J91">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L91">
+        <f>_xll.XLL.UDF(function,J91)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="92" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <f t="array" ref="I92:J92">_xll.FALSE.POSITION(function,I91,J91)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J92">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L92">
+        <f>_xll.XLL.UDF(function,J92)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="93" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <f t="array" ref="I93:J93">_xll.FALSE.POSITION(function,I92,J92)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J93">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L93">
+        <f>_xll.XLL.UDF(function,J93)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="94" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <f t="array" ref="I94:J94">_xll.FALSE.POSITION(function,I93,J93)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J94">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L94">
+        <f>_xll.XLL.UDF(function,J94)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="95" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <f t="array" ref="I95:J95">_xll.FALSE.POSITION(function,I94,J94)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J95">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L95">
+        <f>_xll.XLL.UDF(function,J95)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="96" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <f t="array" ref="I96:J96">_xll.FALSE.POSITION(function,I95,J95)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J96">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L96">
+        <f>_xll.XLL.UDF(function,J96)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="97" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <f t="array" ref="I97:J97">_xll.FALSE.POSITION(function,I96,J96)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J97">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L97">
+        <f>_xll.XLL.UDF(function,J97)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="98" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <f t="array" ref="I98:J98">_xll.FALSE.POSITION(function,I97,J97)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J98">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L98">
+        <f>_xll.XLL.UDF(function,J98)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="99" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <f t="array" ref="I99:J99">_xll.FALSE.POSITION(function,I98,J98)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J99">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="3"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L99">
+        <f>_xll.XLL.UDF(function,J99)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="100" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I100">
+        <f t="array" ref="I100:J100">_xll.FALSE.POSITION(function,I99,J99)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J100">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K100">
+        <f t="shared" ref="K100:K123" si="4">J100-I100</f>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L100">
+        <f>_xll.XLL.UDF(function,J100)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="101" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I101">
+        <f t="array" ref="I101:J101">_xll.FALSE.POSITION(function,I100,J100)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J101">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L101">
+        <f>_xll.XLL.UDF(function,J101)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="102" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I102">
+        <f t="array" ref="I102:J102">_xll.FALSE.POSITION(function,I101,J101)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J102">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L102">
+        <f>_xll.XLL.UDF(function,J102)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="103" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I103">
+        <f t="array" ref="I103:J103">_xll.FALSE.POSITION(function,I102,J102)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J103">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L103">
+        <f>_xll.XLL.UDF(function,J103)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="104" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I104">
+        <f t="array" ref="I104:J104">_xll.FALSE.POSITION(function,I103,J103)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J104">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L104">
+        <f>_xll.XLL.UDF(function,J104)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="105" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I105">
+        <f t="array" ref="I105:J105">_xll.FALSE.POSITION(function,I104,J104)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J105">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L105">
+        <f>_xll.XLL.UDF(function,J105)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="106" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I106">
+        <f t="array" ref="I106:J106">_xll.FALSE.POSITION(function,I105,J105)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J106">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L106">
+        <f>_xll.XLL.UDF(function,J106)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="107" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I107">
+        <f t="array" ref="I107:J107">_xll.FALSE.POSITION(function,I106,J106)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J107">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L107">
+        <f>_xll.XLL.UDF(function,J107)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="108" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I108">
+        <f t="array" ref="I108:J108">_xll.FALSE.POSITION(function,I107,J107)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J108">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L108">
+        <f>_xll.XLL.UDF(function,J108)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="109" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I109">
+        <f t="array" ref="I109:J109">_xll.FALSE.POSITION(function,I108,J108)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J109">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L109">
+        <f>_xll.XLL.UDF(function,J109)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="110" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I110">
+        <f t="array" ref="I110:J110">_xll.FALSE.POSITION(function,I109,J109)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J110">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L110">
+        <f>_xll.XLL.UDF(function,J110)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="111" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I111">
+        <f t="array" ref="I111:J111">_xll.FALSE.POSITION(function,I110,J110)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J111">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L111">
+        <f>_xll.XLL.UDF(function,J111)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="112" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I112">
+        <f t="array" ref="I112:J112">_xll.FALSE.POSITION(function,I111,J111)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J112">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L112">
+        <f>_xll.XLL.UDF(function,J112)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="113" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I113">
+        <f t="array" ref="I113:J113">_xll.FALSE.POSITION(function,I112,J112)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J113">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L113">
+        <f>_xll.XLL.UDF(function,J113)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="114" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I114">
+        <f t="array" ref="I114:J114">_xll.FALSE.POSITION(function,I113,J113)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J114">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L114">
+        <f>_xll.XLL.UDF(function,J114)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="115" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I115">
+        <f t="array" ref="I115:J115">_xll.FALSE.POSITION(function,I114,J114)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J115">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L115">
+        <f>_xll.XLL.UDF(function,J115)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="116" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I116">
+        <f t="array" ref="I116:J116">_xll.FALSE.POSITION(function,I115,J115)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J116">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L116">
+        <f>_xll.XLL.UDF(function,J116)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="117" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I117">
+        <f t="array" ref="I117:J117">_xll.FALSE.POSITION(function,I116,J116)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J117">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L117">
+        <f>_xll.XLL.UDF(function,J117)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="118" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I118">
+        <f t="array" ref="I118:J118">_xll.FALSE.POSITION(function,I117,J117)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J118">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L118">
+        <f>_xll.XLL.UDF(function,J118)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="119" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I119">
+        <f t="array" ref="I119:J119">_xll.FALSE.POSITION(function,I118,J118)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J119">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L119">
+        <f>_xll.XLL.UDF(function,J119)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="120" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I120">
+        <f t="array" ref="I120:J120">_xll.FALSE.POSITION(function,I119,J119)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J120">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L120">
+        <f>_xll.XLL.UDF(function,J120)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="121" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I121">
+        <f t="array" ref="I121:J121">_xll.FALSE.POSITION(function,I120,J120)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J121">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L121">
+        <f>_xll.XLL.UDF(function,J121)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="122" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I122">
+        <f t="array" ref="I122:J122">_xll.FALSE.POSITION(function,I121,J121)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J122">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L122">
+        <f>_xll.XLL.UDF(function,J122)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="123" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I123">
+        <f t="array" ref="I123:J123">_xll.FALSE.POSITION(function,I122,J122)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J123">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="4"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L123">
+        <f>_xll.XLL.UDF(function,J123)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="124" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I124">
+        <f t="array" ref="I124:J124">_xll.FALSE.POSITION(function,I123,J123)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J124">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K124">
+        <f t="shared" ref="K124:K156" si="5">J124-I124</f>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L124">
+        <f>_xll.XLL.UDF(function,J124)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="125" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I125">
+        <f t="array" ref="I125:J125">_xll.FALSE.POSITION(function,I124,J124)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J125">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L125">
+        <f>_xll.XLL.UDF(function,J125)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="126" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I126">
+        <f t="array" ref="I126:J126">_xll.FALSE.POSITION(function,I125,J125)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J126">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L126">
+        <f>_xll.XLL.UDF(function,J126)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="127" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I127">
+        <f t="array" ref="I127:J127">_xll.FALSE.POSITION(function,I126,J126)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J127">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L127">
+        <f>_xll.XLL.UDF(function,J127)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="128" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I128">
+        <f t="array" ref="I128:J128">_xll.FALSE.POSITION(function,I127,J127)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J128">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L128">
+        <f>_xll.XLL.UDF(function,J128)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="129" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I129">
+        <f t="array" ref="I129:J129">_xll.FALSE.POSITION(function,I128,J128)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J129">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L129">
+        <f>_xll.XLL.UDF(function,J129)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="130" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I130">
+        <f t="array" ref="I130:J130">_xll.FALSE.POSITION(function,I129,J129)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J130">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L130">
+        <f>_xll.XLL.UDF(function,J130)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="131" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I131">
+        <f t="array" ref="I131:J131">_xll.FALSE.POSITION(function,I130,J130)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J131">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L131">
+        <f>_xll.XLL.UDF(function,J131)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="132" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I132">
+        <f t="array" ref="I132:J132">_xll.FALSE.POSITION(function,I131,J131)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J132">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L132">
+        <f>_xll.XLL.UDF(function,J132)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="133" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I133">
+        <f t="array" ref="I133:J133">_xll.FALSE.POSITION(function,I132,J132)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J133">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L133">
+        <f>_xll.XLL.UDF(function,J133)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="134" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I134">
+        <f t="array" ref="I134:J134">_xll.FALSE.POSITION(function,I133,J133)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J134">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L134">
+        <f>_xll.XLL.UDF(function,J134)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="135" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I135">
+        <f t="array" ref="I135:J135">_xll.FALSE.POSITION(function,I134,J134)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J135">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L135">
+        <f>_xll.XLL.UDF(function,J135)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="136" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I136">
+        <f t="array" ref="I136:J136">_xll.FALSE.POSITION(function,I135,J135)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J136">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L136">
+        <f>_xll.XLL.UDF(function,J136)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="137" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I137">
+        <f t="array" ref="I137:J137">_xll.FALSE.POSITION(function,I136,J136)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J137">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L137">
+        <f>_xll.XLL.UDF(function,J137)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="138" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I138">
+        <f t="array" ref="I138:J138">_xll.FALSE.POSITION(function,I137,J137)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J138">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L138">
+        <f>_xll.XLL.UDF(function,J138)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="139" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I139">
+        <f t="array" ref="I139:J139">_xll.FALSE.POSITION(function,I138,J138)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J139">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L139">
+        <f>_xll.XLL.UDF(function,J139)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="140" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I140">
+        <f t="array" ref="I140:J140">_xll.FALSE.POSITION(function,I139,J139)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J140">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L140">
+        <f>_xll.XLL.UDF(function,J140)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="141" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I141">
+        <f t="array" ref="I141:J141">_xll.FALSE.POSITION(function,I140,J140)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J141">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L141">
+        <f>_xll.XLL.UDF(function,J141)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="142" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I142">
+        <f t="array" ref="I142:J142">_xll.FALSE.POSITION(function,I141,J141)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J142">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L142">
+        <f>_xll.XLL.UDF(function,J142)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="143" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I143">
+        <f t="array" ref="I143:J143">_xll.FALSE.POSITION(function,I142,J142)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J143">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L143">
+        <f>_xll.XLL.UDF(function,J143)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="144" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I144">
+        <f t="array" ref="I144:J144">_xll.FALSE.POSITION(function,I143,J143)</f>
+        <v>1.75</v>
+      </c>
+      <c r="J144">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="5"/>
+        <v>7.7720182472569288E-3</v>
+      </c>
+      <c r="L144">
+        <f>_xll.XLL.UDF(function,J144)</f>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54362E11-9511-4ABB-B180-AC70D044962A}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B2:Q57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <f t="array" ref="C2">_xll.KAHAN.C</f>
+        <v>-1329987512</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" ref="D3">_xll.XLL.UDF(function,C3)</f>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>1.8</v>
+      </c>
+      <c r="D4" cm="1">
+        <f t="array" ref="D4">_xll.XLL.UDF(function,C4)</f>
+        <v>-1.1960046346767577</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <f t="array" ref="N5">_xll.ARRAY.SET(_xll.ARRAY.INTERVAL($C$3,$C$4,100))</f>
+        <v>-24884302</v>
+      </c>
+      <c r="O5">
+        <f t="array" ref="O5">_xll.ARRAY.SET(_xll.ARRAY.APPLY(function,_xll.ARRAY.GET(N5)))</f>
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" ref="C7:D7">_xll.BISECT(function,C3,C4)</f>
+        <v>1.4</v>
+      </c>
+      <c r="D7">
+        <v>1.8</v>
+      </c>
+      <c r="E7">
+        <f>D7-C7</f>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">_xll.XLL.UDF(function,C7)</f>
+        <v>1.5169716847615065</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <f t="array" ref="I7:J7">_xll.FALSE.POSITION(function,C3,C4)</f>
+        <v>1.4589473169832845</v>
+      </c>
+      <c r="J7">
+        <v>1.8</v>
+      </c>
+      <c r="K7">
+        <f>J7-I7</f>
+        <v>0.34105268301671554</v>
+      </c>
+      <c r="L7" cm="1">
+        <f t="array" ref="L7">_xll.XLL.UDF(function,I7)</f>
+        <v>1.4405589292812715</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C8" cm="1">
+        <f t="array" ref="C8:D8">_xll.BISECT(function,C7,D7)</f>
+        <v>1.6</v>
+      </c>
+      <c r="D8">
+        <v>1.8</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E57" si="0">D8-C8</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">_xll.XLL.UDF(function,C8)</f>
+        <v>1.1139605656149092</v>
+      </c>
+      <c r="I8">
+        <f t="array" ref="I8:J8">_xll.FALSE.POSITION(function,I7,J7)</f>
+        <v>1.6452908190293765</v>
+      </c>
+      <c r="J8">
+        <v>1.8</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K57" si="1">J8-I8</f>
+        <v>0.15470918097062358</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">_xll.XLL.UDF(function,I8)</f>
+        <v>0.93373529482834261</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C9" cm="1">
+        <f t="array" ref="C9:D9">_xll.BISECT(function,C8,D8)</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="D9">
+        <v>1.8</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">_xll.XLL.UDF(function,C9)</f>
+        <v>0.61404985920124144</v>
+      </c>
+      <c r="I9">
+        <f t="array" ref="I9:J9">_xll.FALSE.POSITION(function,I8,J8)</f>
+        <v>1.7131194870770403</v>
+      </c>
+      <c r="J9">
+        <v>1.8</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>8.6880512922959729E-2</v>
+      </c>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">_xll.XLL.UDF(function,I9)</f>
+        <v>0.51030116646466794</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C10" cm="1">
+        <f t="array" ref="C10:D10">_xll.BISECT(function,C9,D9)</f>
+        <v>1.75</v>
+      </c>
+      <c r="D10">
+        <v>1.8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">_xll.XLL.UDF(function,C10)</f>
+        <v>0.11430477128005863</v>
+      </c>
+      <c r="I10">
+        <f t="array" ref="I10:J10">_xll.FALSE.POSITION(function,I9,J9)</f>
+        <v>1.7391026532000045</v>
+      </c>
+      <c r="J10">
+        <v>1.8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>6.0897346799995589E-2</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">_xll.XLL.UDF(function,I10)</f>
+        <v>0.25242931794235723</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C11" cm="1">
+        <f t="array" ref="C11:D11">_xll.BISECT(function,C10,D10)</f>
+        <v>1.75</v>
+      </c>
+      <c r="D11">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999911E-2</v>
+      </c>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">_xll.XLL.UDF(function,C11)</f>
+        <v>0.11430477128005863</v>
+      </c>
+      <c r="I11">
+        <f t="array" ref="I11:J11">_xll.FALSE.POSITION(function,I10,J10)</f>
+        <v>1.749715685081386</v>
+      </c>
+      <c r="J11">
+        <v>1.8</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>5.028431491861407E-2</v>
+      </c>
+      <c r="L11" cm="1">
+        <f t="array" ref="L11">_xll.XLL.UDF(function,I11)</f>
+        <v>0.11821083424804847</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C12" cm="1">
+        <f t="array" ref="C12:D12">_xll.BISECT(function,C11,D11)</f>
+        <v>1.75</v>
+      </c>
+      <c r="D12">
+        <v>1.7625</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.2499999999999956E-2</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">_xll.XLL.UDF(function,C12)</f>
+        <v>0.11430477128005863</v>
+      </c>
+      <c r="I12">
+        <f t="array" ref="I12:J12">_xll.FALSE.POSITION(function,I11,J11)</f>
+        <v>1.7542386502698752</v>
+      </c>
+      <c r="J12">
+        <v>1.8</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>4.5761349730124801E-2</v>
+      </c>
+      <c r="L12" cm="1">
+        <f t="array" ref="L12">_xll.XLL.UDF(function,I12)</f>
+        <v>5.3852495541041746E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C13" cm="1">
+        <f t="array" ref="C13:D13">_xll.BISECT(function,C12,D12)</f>
+        <v>1.7562500000000001</v>
+      </c>
+      <c r="D13">
+        <v>1.7625</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>6.2499999999998668E-3</v>
+      </c>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">_xll.XLL.UDF(function,C13)</f>
+        <v>2.3608992566446038E-2</v>
+      </c>
+      <c r="I13">
+        <f t="array" ref="I13:J13">_xll.FALSE.POSITION(function,I12,J12)</f>
+        <v>1.7562103659345802</v>
+      </c>
+      <c r="J13">
+        <v>1.8</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>4.3789634065419802E-2</v>
+      </c>
+      <c r="L13" cm="1">
+        <f t="array" ref="L13">_xll.XLL.UDF(function,I13)</f>
+        <v>2.4215278066760219E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C14" cm="1">
+        <f t="array" ref="C14:D14">_xll.BISECT(function,C13,D13)</f>
+        <v>1.7562500000000001</v>
+      </c>
+      <c r="D14">
+        <v>1.7593749999999999</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>3.1249999999998224E-3</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">_xll.XLL.UDF(function,C14)</f>
+        <v>2.3608992566446038E-2</v>
+      </c>
+      <c r="I14">
+        <f t="array" ref="I14:J14">_xll.FALSE.POSITION(function,I13,J13)</f>
+        <v>1.7570793717213746</v>
+      </c>
+      <c r="J14">
+        <v>1.8</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>4.2920628278625417E-2</v>
+      </c>
+      <c r="L14" cm="1">
+        <f t="array" ref="L14">_xll.XLL.UDF(function,I14)</f>
+        <v>1.0823764943083252E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C15" cm="1">
+        <f t="array" ref="C15:D15">_xll.BISECT(function,C14,D14)</f>
+        <v>1.7562500000000001</v>
+      </c>
+      <c r="D15">
+        <v>1.7578125</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.5624999999999112E-3</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">_xll.XLL.UDF(function,C15)</f>
+        <v>2.3608992566446038E-2</v>
+      </c>
+      <c r="I15">
+        <f t="array" ref="I15:J15">_xll.FALSE.POSITION(function,I14,J14)</f>
+        <v>1.7574643169147788</v>
+      </c>
+      <c r="J15">
+        <v>1.8</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>4.2535683085221265E-2</v>
+      </c>
+      <c r="L15" cm="1">
+        <f t="array" ref="L15">_xll.XLL.UDF(function,I15)</f>
+        <v>4.8250022853835407E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C16" cm="1">
+        <f t="array" ref="C16:D16">_xll.BISECT(function,C15,D15)</f>
+        <v>1.75703125</v>
+      </c>
+      <c r="D16">
+        <v>1.7578125</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>7.8124999999995559E-4</v>
+      </c>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">_xll.XLL.UDF(function,C16)</f>
+        <v>1.1570760192645028E-2</v>
+      </c>
+      <c r="I16">
+        <f t="array" ref="I16:J16">_xll.FALSE.POSITION(function,I15,J15)</f>
+        <v>1.757635227726587</v>
+      </c>
+      <c r="J16">
+        <v>1.8</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>4.2364772273413065E-2</v>
+      </c>
+      <c r="L16" cm="1">
+        <f t="array" ref="L16">_xll.XLL.UDF(function,I16)</f>
+        <v>2.1482916729463793E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C17" cm="1">
+        <f t="array" ref="C17:D17">_xll.BISECT(function,C16,D16)</f>
+        <v>1.7574218749999999</v>
+      </c>
+      <c r="D17">
+        <v>1.7578125</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>3.9062500000008882E-4</v>
+      </c>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">_xll.XLL.UDF(function,C17)</f>
+        <v>5.4884281423483693E-3</v>
+      </c>
+      <c r="I17">
+        <f t="array" ref="I17:J17">_xll.FALSE.POSITION(function,I16,J16)</f>
+        <v>1.7577111878861791</v>
+      </c>
+      <c r="J17">
+        <v>1.8</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>4.2288812113820962E-2</v>
+      </c>
+      <c r="L17" cm="1">
+        <f t="array" ref="L17">_xll.XLL.UDF(function,I17)</f>
+        <v>9.5599473946441911E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18" cm="1">
+        <f t="array" ref="C18:D18">_xll.BISECT(function,C17,D17)</f>
+        <v>1.7576171875</v>
+      </c>
+      <c r="D18">
+        <v>1.7578125</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.9531250000004441E-4</v>
+      </c>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">_xll.XLL.UDF(function,C18)</f>
+        <v>2.4312171733975305E-3</v>
+      </c>
+      <c r="I18">
+        <f t="array" ref="I18:J18">_xll.FALSE.POSITION(function,I17,J17)</f>
+        <v>1.7577449633345317</v>
+      </c>
+      <c r="J18">
+        <v>1.8</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>4.2255036665468371E-2</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18">_xll.XLL.UDF(function,I18)</f>
+        <v>4.2531802420047967E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" cm="1">
+        <f t="array" ref="C19:D19">_xll.BISECT(function,C18,D18)</f>
+        <v>1.7577148437500001</v>
+      </c>
+      <c r="D19">
+        <v>1.7578125</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>9.7656249999911182E-5</v>
+      </c>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">_xll.XLL.UDF(function,C19)</f>
+        <v>8.9856977481273675E-4</v>
+      </c>
+      <c r="I19">
+        <f t="array" ref="I19:J19">_xll.FALSE.POSITION(function,I18,J18)</f>
+        <v>1.7577599845471539</v>
+      </c>
+      <c r="J19">
+        <v>1.8</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>4.2240015452846169E-2</v>
+      </c>
+      <c r="L19" cm="1">
+        <f t="array" ref="L19">_xll.XLL.UDF(function,I19)</f>
+        <v>1.8920203369439666E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20" cm="1">
+        <f t="array" ref="C20:D20">_xll.BISECT(function,C19,D19)</f>
+        <v>1.757763671875</v>
+      </c>
+      <c r="D20">
+        <v>1.7578125</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>4.8828124999955591E-5</v>
+      </c>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">_xll.XLL.UDF(function,C20)</f>
+        <v>1.3123172677205984E-4</v>
+      </c>
+      <c r="I20">
+        <f t="array" ref="I20:J20">_xll.FALSE.POSITION(function,I19,J19)</f>
+        <v>1.7577666656523241</v>
+      </c>
+      <c r="J20">
+        <v>1.8</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>4.2233334347675955E-2</v>
+      </c>
+      <c r="L20" cm="1">
+        <f t="array" ref="L20">_xll.XLL.UDF(function,I20)</f>
+        <v>8.4162228267112499E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21" cm="1">
+        <f t="array" ref="C21:D21">_xll.BISECT(function,C20,D20)</f>
+        <v>1.757763671875</v>
+      </c>
+      <c r="D21">
+        <v>1.7577880859374999</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2.4414062499866773E-5</v>
+      </c>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">_xll.XLL.UDF(function,C21)</f>
+        <v>1.3123172677205984E-4</v>
+      </c>
+      <c r="I21">
+        <f t="array" ref="I21:J21">_xll.FALSE.POSITION(function,I20,J20)</f>
+        <v>1.7577696373811247</v>
+      </c>
+      <c r="J21">
+        <v>1.8</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>4.2230362618875361E-2</v>
+      </c>
+      <c r="L21" cm="1">
+        <f t="array" ref="L21">_xll.XLL.UDF(function,I21)</f>
+        <v>3.7436866597947921E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C22" cm="1">
+        <f t="array" ref="C22:D22">_xll.BISECT(function,C21,D21)</f>
+        <v>1.757763671875</v>
+      </c>
+      <c r="D22">
+        <v>1.7577758789062501</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.2207031250044409E-5</v>
+      </c>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">_xll.XLL.UDF(function,C22)</f>
+        <v>1.3123172677205984E-4</v>
+      </c>
+      <c r="I22">
+        <f t="array" ref="I22:J22">_xll.FALSE.POSITION(function,I21,J21)</f>
+        <v>1.7577709592179473</v>
+      </c>
+      <c r="J22">
+        <v>1.8</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>4.2229040782052696E-2</v>
+      </c>
+      <c r="L22" cm="1">
+        <f t="array" ref="L22">_xll.XLL.UDF(function,I22)</f>
+        <v>1.6652432596528626E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C23" cm="1">
+        <f t="array" ref="C23:D23">_xll.BISECT(function,C22,D22)</f>
+        <v>1.7577697753906252</v>
+      </c>
+      <c r="D23">
+        <v>1.7577758789062501</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>6.1035156249111822E-6</v>
+      </c>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">_xll.XLL.UDF(function,C23)</f>
+        <v>3.5266841822592148E-5</v>
+      </c>
+      <c r="I23">
+        <f t="array" ref="I23:J23">_xll.FALSE.POSITION(function,I22,J22)</f>
+        <v>1.7577715471809401</v>
+      </c>
+      <c r="J23">
+        <v>1.8</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>4.2228452819059958E-2</v>
+      </c>
+      <c r="L23" cm="1">
+        <f t="array" ref="L23">_xll.XLL.UDF(function,I23)</f>
+        <v>7.4071998923557691E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C24" cm="1">
+        <f t="array" ref="C24:D24">_xll.BISECT(function,C23,D23)</f>
+        <v>1.7577697753906252</v>
+      </c>
+      <c r="D24">
+        <v>1.7577728271484376</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>3.0517578124555911E-6</v>
+      </c>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">_xll.XLL.UDF(function,C24)</f>
+        <v>3.5266841822592148E-5</v>
+      </c>
+      <c r="I24">
+        <f t="array" ref="I24:J24">_xll.FALSE.POSITION(function,I23,J23)</f>
+        <v>1.757771808712246</v>
+      </c>
+      <c r="J24">
+        <v>1.8</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>4.2228191287754013E-2</v>
+      </c>
+      <c r="L24" cm="1">
+        <f t="array" ref="L24">_xll.XLL.UDF(function,I24)</f>
+        <v>3.2948044139732438E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C25" cm="1">
+        <f t="array" ref="C25:D25">_xll.BISECT(function,C24,D24)</f>
+        <v>1.7577713012695315</v>
+      </c>
+      <c r="D25">
+        <v>1.7577728271484376</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1.5258789061167732E-6</v>
+      </c>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">_xll.XLL.UDF(function,C25)</f>
+        <v>1.1273965753395652E-5</v>
+      </c>
+      <c r="I25">
+        <f t="array" ref="I25:J25">_xll.FALSE.POSITION(function,I24,J24)</f>
+        <v>1.7577719250439421</v>
+      </c>
+      <c r="J25">
+        <v>1.8</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>4.2228074956057959E-2</v>
+      </c>
+      <c r="L25" cm="1">
+        <f t="array" ref="L25">_xll.XLL.UDF(function,I25)</f>
+        <v>1.4655642254013908E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C26" cm="1">
+        <f t="array" ref="C26:D26">_xll.BISECT(function,C25,D25)</f>
+        <v>1.7577713012695315</v>
+      </c>
+      <c r="D26">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>7.6293945294736432E-7</v>
+      </c>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">_xll.XLL.UDF(function,C26)</f>
+        <v>1.1273965753395652E-5</v>
+      </c>
+      <c r="I26">
+        <f t="array" ref="I26:J26">_xll.FALSE.POSITION(function,I25,J25)</f>
+        <v>1.7577719767894608</v>
+      </c>
+      <c r="J26">
+        <v>1.8</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>4.2228023210539201E-2</v>
+      </c>
+      <c r="L26" cm="1">
+        <f t="array" ref="L26">_xll.XLL.UDF(function,I26)</f>
+        <v>6.5189839194546405E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C27" cm="1">
+        <f t="array" ref="C27:D27">_xll.BISECT(function,C26,D26)</f>
+        <v>1.757771682739258</v>
+      </c>
+      <c r="D27">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>3.8146972647368216E-7</v>
+      </c>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">_xll.XLL.UDF(function,C27)</f>
+        <v>5.275643301520878E-6</v>
+      </c>
+      <c r="I27">
+        <f t="array" ref="I27:J27">_xll.FALSE.POSITION(function,I26,J26)</f>
+        <v>1.7577719998063996</v>
+      </c>
+      <c r="J27">
+        <v>1.8</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>4.2228000193600401E-2</v>
+      </c>
+      <c r="L27" cm="1">
+        <f t="array" ref="L27">_xll.XLL.UDF(function,I27)</f>
+        <v>2.8997121918310599E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C28" cm="1">
+        <f t="array" ref="C28:D28">_xll.BISECT(function,C27,D27)</f>
+        <v>1.7577718734741212</v>
+      </c>
+      <c r="D28">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1.9073486323684108E-7</v>
+      </c>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">_xll.XLL.UDF(function,C28)</f>
+        <v>2.2764665606997894E-6</v>
+      </c>
+      <c r="I28">
+        <f t="array" ref="I28:J28">_xll.FALSE.POSITION(function,I27,J27)</f>
+        <v>1.7577720100445722</v>
+      </c>
+      <c r="J28">
+        <v>1.8</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>4.2227989955427869E-2</v>
+      </c>
+      <c r="L28" cm="1">
+        <f t="array" ref="L28">_xll.XLL.UDF(function,I28)</f>
+        <v>1.2898221924698182E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C29" cm="1">
+        <f t="array" ref="C29:D29">_xll.BISECT(function,C28,D28)</f>
+        <v>1.7577719688415527</v>
+      </c>
+      <c r="D29">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>9.5367431729442842E-8</v>
+      </c>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">_xll.XLL.UDF(function,C29)</f>
+        <v>7.7687431264962918E-7</v>
+      </c>
+      <c r="I29">
+        <f t="array" ref="I29:J29">_xll.FALSE.POSITION(function,I28,J28)</f>
+        <v>1.7577720145986175</v>
+      </c>
+      <c r="J29">
+        <v>1.8</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>4.2227985401382506E-2</v>
+      </c>
+      <c r="L29" cm="1">
+        <f t="array" ref="L29">_xll.XLL.UDF(function,I29)</f>
+        <v>5.7372631220949542E-8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C30" cm="1">
+        <f t="array" ref="C30:D30">_xll.BISECT(function,C29,D29)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D30">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>4.7683715864721421E-8</v>
+      </c>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">_xll.XLL.UDF(function,C30)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+      <c r="I30">
+        <f t="array" ref="I30:J30">_xll.FALSE.POSITION(function,I29,J29)</f>
+        <v>1.757772016624304</v>
+      </c>
+      <c r="J30">
+        <v>1.8</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>4.2227983375695999E-2</v>
+      </c>
+      <c r="L30" cm="1">
+        <f t="array" ref="L30">_xll.XLL.UDF(function,I30)</f>
+        <v>2.5519944942481611E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C31" cm="1">
+        <f t="array" ref="C31:D31">_xll.BISECT(function,C30,D30)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D31">
+        <v>1.7577720403671266</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>2.3841858043383013E-8</v>
+      </c>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">_xll.XLL.UDF(function,C31)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+      <c r="I31">
+        <f t="array" ref="I31:J31">_xll.FALSE.POSITION(function,I30,J30)</f>
+        <v>1.7577720175253506</v>
+      </c>
+      <c r="J31">
+        <v>1.8</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>4.2227982474649428E-2</v>
+      </c>
+      <c r="L31" cm="1">
+        <f t="array" ref="L31">_xll.XLL.UDF(function,I31)</f>
+        <v>1.1351534758805362E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C32" cm="1">
+        <f t="array" ref="C32:D32">_xll.BISECT(function,C31,D31)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D32">
+        <v>1.7577720284461975</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1.1920928910669204E-8</v>
+      </c>
+      <c r="F32" cm="1">
+        <f t="array" ref="F32">_xll.XLL.UDF(function,C32)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+      <c r="I32">
+        <f t="array" ref="I32:J32">_xll.FALSE.POSITION(function,I31,J31)</f>
+        <v>1.7577720179261453</v>
+      </c>
+      <c r="J32">
+        <v>1.8</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>4.2227982073854697E-2</v>
+      </c>
+      <c r="L32" cm="1">
+        <f t="array" ref="L32">_xll.XLL.UDF(function,I32)</f>
+        <v>5.0492818687497128E-9</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C33" cm="1">
+        <f t="array" ref="C33:D33">_xll.BISECT(function,C32,D32)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D33">
+        <v>1.7577720224857329</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>5.9604643443122995E-9</v>
+      </c>
+      <c r="F33" cm="1">
+        <f t="array" ref="F33">_xll.XLL.UDF(function,C33)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+      <c r="I33">
+        <f t="array" ref="I33:J33">_xll.FALSE.POSITION(function,I32,J32)</f>
+        <v>1.757772018104423</v>
+      </c>
+      <c r="J33">
+        <v>1.8</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>4.2227981895577082E-2</v>
+      </c>
+      <c r="L33" cm="1">
+        <f t="array" ref="L33">_xll.XLL.UDF(function,I33)</f>
+        <v>2.2459758472239699E-9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C34" cm="1">
+        <f t="array" ref="C34:D34">_xll.BISECT(function,C33,D33)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D34">
+        <v>1.7577720195055009</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>2.9802322831784522E-9</v>
+      </c>
+      <c r="F34" cm="1">
+        <f t="array" ref="F34">_xll.XLL.UDF(function,C34)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+      <c r="I34">
+        <f t="array" ref="I34:J34">_xll.FALSE.POSITION(function,I33,J33)</f>
+        <v>1.7577720181837229</v>
+      </c>
+      <c r="J34">
+        <v>1.8</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>4.2227981816277183E-2</v>
+      </c>
+      <c r="L34" cm="1">
+        <f t="array" ref="L34">_xll.XLL.UDF(function,I34)</f>
+        <v>9.9903196776386538E-10</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C35" cm="1">
+        <f t="array" ref="C35:D35">_xll.BISECT(function,C34,D34)</f>
+        <v>1.7577720180153849</v>
+      </c>
+      <c r="D35">
+        <v>1.7577720195055009</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1.4901160305669237E-9</v>
+      </c>
+      <c r="F35" cm="1">
+        <f t="array" ref="F35">_xll.XLL.UDF(function,C35)</f>
+        <v>3.6460452368526064E-9</v>
+      </c>
+      <c r="I35">
+        <f t="array" ref="I35:J35">_xll.FALSE.POSITION(function,I34,J34)</f>
+        <v>1.7577720182189962</v>
+      </c>
+      <c r="J35">
+        <v>1.8</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>4.2227981781003843E-2</v>
+      </c>
+      <c r="L35" cm="1">
+        <f t="array" ref="L35">_xll.XLL.UDF(function,I35)</f>
+        <v>4.4438053227298722E-10</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C36" cm="1">
+        <f t="array" ref="C36:D36">_xll.BISECT(function,C35,D35)</f>
+        <v>1.7577720180153849</v>
+      </c>
+      <c r="D36">
+        <v>1.7577720187604429</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>7.4505801528346183E-10</v>
+      </c>
+      <c r="F36" cm="1">
+        <f t="array" ref="F36">_xll.XLL.UDF(function,C36)</f>
+        <v>3.6460452368526064E-9</v>
+      </c>
+      <c r="I36">
+        <f t="array" ref="I36:J36">_xll.FALSE.POSITION(function,I35,J35)</f>
+        <v>1.7577720182346861</v>
+      </c>
+      <c r="J36">
+        <v>1.8</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>4.2227981765313949E-2</v>
+      </c>
+      <c r="L36" cm="1">
+        <f t="array" ref="L36">_xll.XLL.UDF(function,I36)</f>
+        <v>1.9766765999840542E-10</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C37" cm="1">
+        <f t="array" ref="C37:D37">_xll.BISECT(function,C36,D36)</f>
+        <v>1.7577720180153849</v>
+      </c>
+      <c r="D37">
+        <v>1.757772018387914</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>3.7252911866403338E-10</v>
+      </c>
+      <c r="F37" cm="1">
+        <f t="array" ref="F37">_xll.XLL.UDF(function,C37)</f>
+        <v>3.6460452368526064E-9</v>
+      </c>
+      <c r="I37">
+        <f t="array" ref="I37:J37">_xll.FALSE.POSITION(function,I36,J36)</f>
+        <v>1.7577720182416652</v>
+      </c>
+      <c r="J37">
+        <v>1.8</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>4.2227981758334865E-2</v>
+      </c>
+      <c r="L37" cm="1">
+        <f t="array" ref="L37">_xll.XLL.UDF(function,I37)</f>
+        <v>8.7924334475928847E-11</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C38" cm="1">
+        <f t="array" ref="C38:D38">_xll.BISECT(function,C37,D37)</f>
+        <v>1.7577720182016494</v>
+      </c>
+      <c r="D38">
+        <v>1.757772018387914</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1.8626455933201669E-10</v>
+      </c>
+      <c r="F38" cm="1">
+        <f t="array" ref="F38">_xll.XLL.UDF(function,C38)</f>
+        <v>7.1714900658867839E-10</v>
+      </c>
+      <c r="I38">
+        <f t="array" ref="I38:J38">_xll.FALSE.POSITION(function,I37,J37)</f>
+        <v>1.7577720182447696</v>
+      </c>
+      <c r="J38">
+        <v>1.8</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>4.2227981755230459E-2</v>
+      </c>
+      <c r="L38" cm="1">
+        <f t="array" ref="L38">_xll.XLL.UDF(function,I38)</f>
+        <v>3.9110048532310515E-11</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C39" cm="1">
+        <f t="array" ref="C39:D39">_xll.BISECT(function,C38,D38)</f>
+        <v>1.7577720182016494</v>
+      </c>
+      <c r="D39">
+        <v>1.7577720182947818</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>9.3132390688310807E-11</v>
+      </c>
+      <c r="F39" cm="1">
+        <f t="array" ref="F39">_xll.XLL.UDF(function,C39)</f>
+        <v>7.1714900658867839E-10</v>
+      </c>
+      <c r="I39">
+        <f t="array" ref="I39:J39">_xll.FALSE.POSITION(function,I38,J38)</f>
+        <v>1.7577720182461505</v>
+      </c>
+      <c r="J39">
+        <v>1.8</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>4.2227981753849564E-2</v>
+      </c>
+      <c r="L39" cm="1">
+        <f t="array" ref="L39">_xll.XLL.UDF(function,I39)</f>
+        <v>1.7395862528095343E-11</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C40" cm="1">
+        <f t="array" ref="C40:D40">_xll.BISECT(function,C39,D39)</f>
+        <v>1.7577720182016494</v>
+      </c>
+      <c r="D40">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>4.6566084321852941E-11</v>
+      </c>
+      <c r="F40" cm="1">
+        <f t="array" ref="F40">_xll.XLL.UDF(function,C40)</f>
+        <v>7.1714900658867839E-10</v>
+      </c>
+      <c r="I40">
+        <f t="array" ref="I40:J40">_xll.FALSE.POSITION(function,I39,J39)</f>
+        <v>1.7577720182467647</v>
+      </c>
+      <c r="J40">
+        <v>1.8</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>4.2227981753235388E-2</v>
+      </c>
+      <c r="L40" cm="1">
+        <f t="array" ref="L40">_xll.XLL.UDF(function,I40)</f>
+        <v>7.7378103923975542E-12</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C41" cm="1">
+        <f t="array" ref="C41:D41">_xll.BISECT(function,C40,D40)</f>
+        <v>1.7577720182249323</v>
+      </c>
+      <c r="D41">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>2.3283153183228933E-11</v>
+      </c>
+      <c r="F41" cm="1">
+        <f t="array" ref="F41">_xll.XLL.UDF(function,C41)</f>
+        <v>3.5104008582698413E-10</v>
+      </c>
+      <c r="I41">
+        <f t="array" ref="I41:J41">_xll.FALSE.POSITION(function,I40,J40)</f>
+        <v>1.7577720182470378</v>
+      </c>
+      <c r="J41">
+        <v>1.8</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>4.2227981752962274E-2</v>
+      </c>
+      <c r="L41" cm="1">
+        <f t="array" ref="L41">_xll.XLL.UDF(function,I41)</f>
+        <v>3.444355911591154E-12</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C42" cm="1">
+        <f t="array" ref="C42:D42">_xll.BISECT(function,C41,D41)</f>
+        <v>1.7577720182365739</v>
+      </c>
+      <c r="D42">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1.1641576591614466E-11</v>
+      </c>
+      <c r="F42" cm="1">
+        <f t="array" ref="F42">_xll.XLL.UDF(function,C42)</f>
+        <v>1.6798118450377585E-10</v>
+      </c>
+      <c r="I42">
+        <f t="array" ref="I42:J42">_xll.FALSE.POSITION(function,I41,J41)</f>
+        <v>1.7577720182471595</v>
+      </c>
+      <c r="J42">
+        <v>1.8</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>4.2227981752840593E-2</v>
+      </c>
+      <c r="L42" cm="1">
+        <f t="array" ref="L42">_xll.XLL.UDF(function,I42)</f>
+        <v>1.5312195955618436E-12</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C43" cm="1">
+        <f t="array" ref="C43:D43">_xll.BISECT(function,C42,D42)</f>
+        <v>1.7577720182423948</v>
+      </c>
+      <c r="D43">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>5.8206772735047707E-12</v>
+      </c>
+      <c r="F43" cm="1">
+        <f t="array" ref="F43">_xll.XLL.UDF(function,C43)</f>
+        <v>7.6450845651185615E-11</v>
+      </c>
+      <c r="I43">
+        <f t="array" ref="I43:J43">_xll.FALSE.POSITION(function,I42,J42)</f>
+        <v>1.7577720182472134</v>
+      </c>
+      <c r="J43">
+        <v>1.8</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>4.2227981752786636E-2</v>
+      </c>
+      <c r="L43" cm="1">
+        <f t="array" ref="L43">_xll.XLL.UDF(function,I43)</f>
+        <v>6.8212102632946353E-13</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C44" cm="1">
+        <f t="array" ref="C44:D44">_xll.BISECT(function,C43,D43)</f>
+        <v>1.7577720182453052</v>
+      </c>
+      <c r="D44">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>2.9103386367523854E-12</v>
+      </c>
+      <c r="F44" cm="1">
+        <f t="array" ref="F44">_xll.XLL.UDF(function,C44)</f>
+        <v>3.0688340757007842E-11</v>
+      </c>
+      <c r="I44">
+        <f t="array" ref="I44:J44">_xll.FALSE.POSITION(function,I43,J43)</f>
+        <v>1.7577720182472374</v>
+      </c>
+      <c r="J44">
+        <v>1.8</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>4.2227981752762656E-2</v>
+      </c>
+      <c r="L44" cm="1">
+        <f t="array" ref="L44">_xll.XLL.UDF(function,I44)</f>
+        <v>3.0375701953739668E-13</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C45" cm="1">
+        <f t="array" ref="C45:D45">_xll.BISECT(function,C44,D44)</f>
+        <v>1.7577720182467602</v>
+      </c>
+      <c r="D45">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>1.4552803406786552E-12</v>
+      </c>
+      <c r="F45" cm="1">
+        <f t="array" ref="F45">_xll.XLL.UDF(function,C45)</f>
+        <v>7.8088646659730117E-12</v>
+      </c>
+      <c r="I45">
+        <f t="array" ref="I45:J45">_xll.FALSE.POSITION(function,I44,J44)</f>
+        <v>1.757772018247248</v>
+      </c>
+      <c r="J45">
+        <v>1.8</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>4.2227981752751997E-2</v>
+      </c>
+      <c r="L45" cm="1">
+        <f t="array" ref="L45">_xll.XLL.UDF(function,I45)</f>
+        <v>1.3677947663380992E-13</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C46" cm="1">
+        <f t="array" ref="C46:D46">_xll.BISECT(function,C45,D45)</f>
+        <v>1.7577720182467602</v>
+      </c>
+      <c r="D46">
+        <v>1.7577720182474879</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>7.276401703393276E-13</v>
+      </c>
+      <c r="F46" cm="1">
+        <f t="array" ref="F46">_xll.XLL.UDF(function,C46)</f>
+        <v>7.8088646659730117E-12</v>
+      </c>
+      <c r="I46">
+        <f t="array" ref="I46:J46">_xll.FALSE.POSITION(function,I45,J45)</f>
+        <v>1.7577720182472529</v>
+      </c>
+      <c r="J46">
+        <v>1.8</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>4.2227981752747112E-2</v>
+      </c>
+      <c r="L46" cm="1">
+        <f t="array" ref="L46">_xll.XLL.UDF(function,I46)</f>
+        <v>6.0396132539606698E-14</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C47" cm="1">
+        <f t="array" ref="C47:D47">_xll.BISECT(function,C46,D46)</f>
+        <v>1.7577720182471239</v>
+      </c>
+      <c r="D47">
+        <v>1.7577720182474879</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>3.6393110747212631E-13</v>
+      </c>
+      <c r="F47" cm="1">
+        <f t="array" ref="F47">_xll.XLL.UDF(function,C47)</f>
+        <v>2.0889956431325127E-12</v>
+      </c>
+      <c r="I47">
+        <f t="array" ref="I47:J47">_xll.FALSE.POSITION(function,I46,J46)</f>
+        <v>1.7577720182472552</v>
+      </c>
+      <c r="J47">
+        <v>1.8</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>4.2227981752744892E-2</v>
+      </c>
+      <c r="L47" cm="1">
+        <f t="array" ref="L47">_xll.XLL.UDF(function,I47)</f>
+        <v>2.4868995751603197E-14</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C48" cm="1">
+        <f t="array" ref="C48:D48">_xll.BISECT(function,C47,D47)</f>
+        <v>1.7577720182471239</v>
+      </c>
+      <c r="D48">
+        <v>1.757772018247306</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>1.8207657603852567E-13</v>
+      </c>
+      <c r="F48" cm="1">
+        <f t="array" ref="F48">_xll.XLL.UDF(function,C48)</f>
+        <v>2.0889956431325127E-12</v>
+      </c>
+      <c r="I48">
+        <f t="array" ref="I48:J48">_xll.FALSE.POSITION(function,I47,J47)</f>
+        <v>1.757772018247256</v>
+      </c>
+      <c r="J48">
+        <v>1.8</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>4.2227981752744004E-2</v>
+      </c>
+      <c r="L48" cm="1">
+        <f t="array" ref="L48">_xll.XLL.UDF(function,I48)</f>
+        <v>1.0658141036401446E-14</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C49" cm="1">
+        <f t="array" ref="C49:D49">_xll.BISECT(function,C48,D48)</f>
+        <v>1.757772018247215</v>
+      </c>
+      <c r="D49">
+        <v>1.757772018247306</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>9.1038288019262836E-14</v>
+      </c>
+      <c r="F49" cm="1">
+        <f t="array" ref="F49">_xll.XLL.UDF(function,C49)</f>
+        <v>6.5902838741727573E-13</v>
+      </c>
+      <c r="I49">
+        <f t="array" ref="I49:J49">_xll.FALSE.POSITION(function,I48,J48)</f>
+        <v>1.7577720182472565</v>
+      </c>
+      <c r="J49">
+        <v>1.8</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>4.222798175274356E-2</v>
+      </c>
+      <c r="L49" cm="1">
+        <f t="array" ref="L49">_xll.XLL.UDF(function,I49)</f>
+        <v>5.3290705182007372E-15</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C50" cm="1">
+        <f t="array" ref="C50:D50">_xll.BISECT(function,C49,D49)</f>
+        <v>1.757772018247215</v>
+      </c>
+      <c r="D50">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>4.5519144009631418E-14</v>
+      </c>
+      <c r="F50" cm="1">
+        <f t="array" ref="F50">_xll.XLL.UDF(function,C50)</f>
+        <v>6.5902838741727573E-13</v>
+      </c>
+      <c r="I50">
+        <f t="array" ref="I50:J50">_xll.FALSE.POSITION(function,I49,J49)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J50">
+        <v>1.8</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L50" cm="1">
+        <f t="array" ref="L50">_xll.XLL.UDF(function,I50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C51" cm="1">
+        <f t="array" ref="C51:D51">_xll.BISECT(function,C50,D50)</f>
+        <v>1.7577720182472376</v>
+      </c>
+      <c r="D51">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>2.2870594307278225E-14</v>
+      </c>
+      <c r="F51" cm="1">
+        <f t="array" ref="F51">_xll.XLL.UDF(function,C51)</f>
+        <v>3.0198066269799699E-13</v>
+      </c>
+      <c r="I51">
+        <f t="array" ref="I51:J51">_xll.FALSE.POSITION(function,I50,J50)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J51">
+        <v>1.8</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L51" cm="1">
+        <f t="array" ref="L51">_xll.XLL.UDF(function,I51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C52" cm="1">
+        <f t="array" ref="C52:D52">_xll.BISECT(function,C51,D51)</f>
+        <v>1.7577720182472492</v>
+      </c>
+      <c r="D52">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>1.1324274851176597E-14</v>
+      </c>
+      <c r="F52" cm="1">
+        <f t="array" ref="F52">_xll.XLL.UDF(function,C52)</f>
+        <v>1.2079226507920974E-13</v>
+      </c>
+      <c r="I52">
+        <f t="array" ref="I52:J52">_xll.FALSE.POSITION(function,I51,J51)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J52">
+        <v>1.8</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L52" cm="1">
+        <f t="array" ref="L52">_xll.XLL.UDF(function,I52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C53" cm="1">
+        <f t="array" ref="C53:D53">_xll.BISECT(function,C52,D52)</f>
+        <v>1.7577720182472549</v>
+      </c>
+      <c r="D53">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>5.5511151231257827E-15</v>
+      </c>
+      <c r="F53" cm="1">
+        <f t="array" ref="F53">_xll.XLL.UDF(function,C53)</f>
+        <v>2.8421709430403604E-14</v>
+      </c>
+      <c r="I53">
+        <f t="array" ref="I53:J53">_xll.FALSE.POSITION(function,I52,J52)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J53">
+        <v>1.8</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L53" cm="1">
+        <f t="array" ref="L53">_xll.XLL.UDF(function,I53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C54" cm="1">
+        <f t="array" ref="C54:D54">_xll.BISECT(function,C53,D53)</f>
+        <v>1.7577720182472549</v>
+      </c>
+      <c r="D54">
+        <v>1.7577720182472576</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>2.6645352591003757E-15</v>
+      </c>
+      <c r="F54" cm="1">
+        <f t="array" ref="F54">_xll.XLL.UDF(function,C54)</f>
+        <v>2.8421709430403604E-14</v>
+      </c>
+      <c r="I54">
+        <f t="array" ref="I54:J54">_xll.FALSE.POSITION(function,I53,J53)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J54">
+        <v>1.8</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L54" cm="1">
+        <f t="array" ref="L54">_xll.XLL.UDF(function,I54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C55" cm="1">
+        <f t="array" ref="C55:D55">_xll.BISECT(function,C54,D54)</f>
+        <v>1.7577720182472563</v>
+      </c>
+      <c r="D55">
+        <v>1.7577720182472576</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F55" cm="1">
+        <f t="array" ref="F55">_xll.XLL.UDF(function,C55)</f>
+        <v>8.8817841970012129E-15</v>
+      </c>
+      <c r="I55">
+        <f t="array" ref="I55:J55">_xll.FALSE.POSITION(function,I54,J54)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J55">
+        <v>1.8</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L55" cm="1">
+        <f t="array" ref="L55">_xll.XLL.UDF(function,I55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C56" cm="1">
+        <f t="array" ref="C56:D56">_xll.BISECT(function,C55,D55)</f>
+        <v>1.7577720182472563</v>
+      </c>
+      <c r="D56">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F56" cm="1">
+        <f t="array" ref="F56">_xll.XLL.UDF(function,C56)</f>
+        <v>8.8817841970012129E-15</v>
+      </c>
+      <c r="I56">
+        <f t="array" ref="I56:J56">_xll.FALSE.POSITION(function,I55,J55)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J56">
+        <v>1.8</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L56" cm="1">
+        <f t="array" ref="L56">_xll.XLL.UDF(function,I56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C57" cm="1">
+        <f t="array" ref="C57:D57">_xll.BISECT(function,C56,D56)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D57">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F57" cm="1">
+        <f t="array" ref="F57">_xll.XLL.UDF(function,C57)</f>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="array" ref="I57:J57">_xll.FALSE.POSITION(function,I56,J56)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J57">
+        <v>1.8</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L57" cm="1">
+        <f t="array" ref="L57">_xll.XLL.UDF(function,I57)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
